--- a/Svr.Web/wwwroot/Templates/0901.xlsx
+++ b/Svr.Web/wwwroot/Templates/0901.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Свод" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -706,7 +706,7 @@
     <xf numFmtId="167" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="4" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1047,48 +1047,70 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1129,52 +1151,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="21">
@@ -1500,8 +1496,8 @@
   </sheetPr>
   <dimension ref="A1:AH73"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A55" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1544,41 +1540,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="18.75">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="135"/>
-      <c r="I1" s="132" t="s">
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="112" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="132"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="132"/>
-      <c r="P1" s="132"/>
-      <c r="Q1" s="132"/>
-      <c r="R1" s="132"/>
-      <c r="S1" s="132"/>
-      <c r="T1" s="132"/>
-      <c r="U1" s="132"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
+      <c r="R1" s="112"/>
+      <c r="S1" s="112"/>
+      <c r="T1" s="112"/>
+      <c r="U1" s="112"/>
       <c r="V1" s="68"/>
       <c r="W1" s="69"/>
       <c r="X1" s="68"/>
       <c r="Y1" s="69"/>
-      <c r="Z1" s="129" t="s">
+      <c r="Z1" s="115" t="s">
         <v>35</v>
       </c>
-      <c r="AA1" s="129"/>
-      <c r="AB1" s="129"/>
-      <c r="AC1" s="129"/>
+      <c r="AA1" s="115"/>
+      <c r="AB1" s="115"/>
+      <c r="AC1" s="115"/>
       <c r="AD1" s="70"/>
       <c r="AE1" s="71"/>
       <c r="AF1" s="72"/>
@@ -1586,41 +1582,41 @@
       <c r="AH1" s="74"/>
     </row>
     <row r="2" spans="1:34" ht="22.5" customHeight="1">
-      <c r="A2" s="136" t="s">
+      <c r="A2" s="106" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="136"/>
-      <c r="C2" s="136"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="132" t="s">
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="J2" s="132"/>
-      <c r="K2" s="132"/>
-      <c r="L2" s="132"/>
-      <c r="M2" s="132"/>
-      <c r="N2" s="132"/>
-      <c r="O2" s="132"/>
-      <c r="P2" s="132"/>
-      <c r="Q2" s="132"/>
-      <c r="R2" s="132"/>
-      <c r="S2" s="132"/>
-      <c r="T2" s="132"/>
-      <c r="U2" s="132"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="112"/>
+      <c r="Q2" s="112"/>
+      <c r="R2" s="112"/>
+      <c r="S2" s="112"/>
+      <c r="T2" s="112"/>
+      <c r="U2" s="112"/>
       <c r="V2" s="68"/>
       <c r="W2" s="69"/>
       <c r="X2" s="68"/>
       <c r="Y2" s="75"/>
-      <c r="Z2" s="130" t="s">
+      <c r="Z2" s="116" t="s">
         <v>83</v>
       </c>
-      <c r="AA2" s="130"/>
-      <c r="AB2" s="130"/>
-      <c r="AC2" s="130"/>
+      <c r="AA2" s="116"/>
+      <c r="AB2" s="116"/>
+      <c r="AC2" s="116"/>
       <c r="AD2" s="76"/>
       <c r="AE2" s="77"/>
       <c r="AF2" s="78"/>
@@ -1628,42 +1624,42 @@
       <c r="AH2" s="74"/>
     </row>
     <row r="3" spans="1:34" ht="18.75">
-      <c r="A3" s="136" t="s">
+      <c r="A3" s="106" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="136"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="133" t="s">
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="110" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="133"/>
-      <c r="K3" s="133"/>
-      <c r="L3" s="133"/>
-      <c r="M3" s="133"/>
-      <c r="N3" s="133"/>
-      <c r="O3" s="133"/>
-      <c r="P3" s="133"/>
-      <c r="Q3" s="133"/>
-      <c r="R3" s="133"/>
-      <c r="S3" s="133"/>
-      <c r="T3" s="133"/>
-      <c r="U3" s="133"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="110"/>
+      <c r="N3" s="110"/>
+      <c r="O3" s="110"/>
+      <c r="P3" s="110"/>
+      <c r="Q3" s="110"/>
+      <c r="R3" s="110"/>
+      <c r="S3" s="110"/>
+      <c r="T3" s="110"/>
+      <c r="U3" s="110"/>
       <c r="V3" s="78"/>
       <c r="W3" s="80"/>
       <c r="X3" s="78"/>
       <c r="Y3" s="80"/>
-      <c r="Z3" s="130" t="s">
+      <c r="Z3" s="116" t="s">
         <v>34</v>
       </c>
-      <c r="AA3" s="130"/>
-      <c r="AB3" s="130"/>
-      <c r="AC3" s="130"/>
-      <c r="AD3" s="134"/>
+      <c r="AA3" s="116"/>
+      <c r="AB3" s="116"/>
+      <c r="AC3" s="116"/>
+      <c r="AD3" s="118"/>
       <c r="AE3" s="75"/>
       <c r="AF3" s="76" t="s">
         <v>33</v>
@@ -1672,39 +1668,39 @@
       <c r="AH3" s="74"/>
     </row>
     <row r="4" spans="1:34" ht="18.75">
-      <c r="A4" s="136" t="s">
+      <c r="A4" s="106" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="136"/>
-      <c r="C4" s="136"/>
-      <c r="D4" s="136"/>
-      <c r="E4" s="136"/>
-      <c r="F4" s="136"/>
-      <c r="G4" s="136"/>
-      <c r="H4" s="136"/>
-      <c r="I4" s="133"/>
-      <c r="J4" s="133"/>
-      <c r="K4" s="133"/>
-      <c r="L4" s="133"/>
-      <c r="M4" s="133"/>
-      <c r="N4" s="133"/>
-      <c r="O4" s="133"/>
-      <c r="P4" s="133"/>
-      <c r="Q4" s="133"/>
-      <c r="R4" s="133"/>
-      <c r="S4" s="133"/>
-      <c r="T4" s="133"/>
-      <c r="U4" s="133"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="110"/>
+      <c r="L4" s="110"/>
+      <c r="M4" s="110"/>
+      <c r="N4" s="110"/>
+      <c r="O4" s="110"/>
+      <c r="P4" s="110"/>
+      <c r="Q4" s="110"/>
+      <c r="R4" s="110"/>
+      <c r="S4" s="110"/>
+      <c r="T4" s="110"/>
+      <c r="U4" s="110"/>
       <c r="V4" s="78"/>
       <c r="W4" s="75"/>
       <c r="X4" s="82"/>
       <c r="Y4" s="75"/>
-      <c r="Z4" s="130" t="s">
+      <c r="Z4" s="116" t="s">
         <v>84</v>
       </c>
-      <c r="AA4" s="130"/>
-      <c r="AB4" s="130"/>
-      <c r="AC4" s="130"/>
+      <c r="AA4" s="116"/>
+      <c r="AB4" s="116"/>
+      <c r="AC4" s="116"/>
       <c r="AD4" s="76"/>
       <c r="AE4" s="77"/>
       <c r="AF4" s="76"/>
@@ -1712,37 +1708,37 @@
       <c r="AH4" s="74"/>
     </row>
     <row r="5" spans="1:34" ht="18.75">
-      <c r="A5" s="136"/>
-      <c r="B5" s="136"/>
-      <c r="C5" s="136"/>
-      <c r="D5" s="136"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="136"/>
-      <c r="G5" s="136"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="131" t="s">
+      <c r="A5" s="106"/>
+      <c r="B5" s="106"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="117" t="s">
         <v>82</v>
       </c>
-      <c r="J5" s="131"/>
-      <c r="K5" s="131"/>
-      <c r="L5" s="131"/>
-      <c r="M5" s="131"/>
-      <c r="N5" s="131"/>
-      <c r="O5" s="131"/>
-      <c r="P5" s="131"/>
-      <c r="Q5" s="131"/>
-      <c r="R5" s="131"/>
-      <c r="S5" s="131"/>
-      <c r="T5" s="131"/>
-      <c r="U5" s="131"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="117"/>
+      <c r="L5" s="117"/>
+      <c r="M5" s="117"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="117"/>
+      <c r="T5" s="117"/>
+      <c r="U5" s="117"/>
       <c r="V5" s="78"/>
       <c r="W5" s="75"/>
       <c r="X5" s="82"/>
       <c r="Y5" s="75"/>
-      <c r="Z5" s="130"/>
-      <c r="AA5" s="130"/>
-      <c r="AB5" s="130"/>
-      <c r="AC5" s="130"/>
+      <c r="Z5" s="116"/>
+      <c r="AA5" s="116"/>
+      <c r="AB5" s="116"/>
+      <c r="AC5" s="116"/>
       <c r="AD5" s="76"/>
       <c r="AE5" s="77"/>
       <c r="AF5" s="76"/>
@@ -1750,27 +1746,27 @@
       <c r="AH5" s="74"/>
     </row>
     <row r="6" spans="1:34" ht="18.75">
-      <c r="A6" s="136"/>
-      <c r="B6" s="136"/>
-      <c r="C6" s="136"/>
-      <c r="D6" s="136"/>
-      <c r="E6" s="136"/>
-      <c r="F6" s="136"/>
-      <c r="G6" s="136"/>
-      <c r="H6" s="136"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="133"/>
-      <c r="K6" s="133"/>
-      <c r="L6" s="133"/>
-      <c r="M6" s="133"/>
-      <c r="N6" s="133"/>
-      <c r="O6" s="133"/>
-      <c r="P6" s="133"/>
-      <c r="Q6" s="133"/>
-      <c r="R6" s="133"/>
-      <c r="S6" s="133"/>
-      <c r="T6" s="133"/>
-      <c r="U6" s="133"/>
+      <c r="A6" s="106"/>
+      <c r="B6" s="106"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="110"/>
+      <c r="J6" s="110"/>
+      <c r="K6" s="110"/>
+      <c r="L6" s="110"/>
+      <c r="M6" s="110"/>
+      <c r="N6" s="110"/>
+      <c r="O6" s="110"/>
+      <c r="P6" s="110"/>
+      <c r="Q6" s="110"/>
+      <c r="R6" s="110"/>
+      <c r="S6" s="110"/>
+      <c r="T6" s="110"/>
+      <c r="U6" s="110"/>
       <c r="V6" s="78"/>
       <c r="W6" s="75"/>
       <c r="X6" s="82"/>
@@ -1788,29 +1784,29 @@
       <c r="AH6" s="74"/>
     </row>
     <row r="7" spans="1:34" ht="18.75">
-      <c r="A7" s="136"/>
-      <c r="B7" s="136"/>
-      <c r="C7" s="136"/>
-      <c r="D7" s="136"/>
-      <c r="E7" s="136"/>
-      <c r="F7" s="136"/>
-      <c r="G7" s="136"/>
-      <c r="H7" s="136"/>
-      <c r="I7" s="133" t="s">
+      <c r="A7" s="106"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="133"/>
-      <c r="K7" s="133"/>
-      <c r="L7" s="133"/>
-      <c r="M7" s="133"/>
-      <c r="N7" s="133"/>
-      <c r="O7" s="133"/>
-      <c r="P7" s="133"/>
-      <c r="Q7" s="133"/>
-      <c r="R7" s="133"/>
-      <c r="S7" s="133"/>
-      <c r="T7" s="133"/>
-      <c r="U7" s="133"/>
+      <c r="J7" s="110"/>
+      <c r="K7" s="110"/>
+      <c r="L7" s="110"/>
+      <c r="M7" s="110"/>
+      <c r="N7" s="110"/>
+      <c r="O7" s="110"/>
+      <c r="P7" s="110"/>
+      <c r="Q7" s="110"/>
+      <c r="R7" s="110"/>
+      <c r="S7" s="110"/>
+      <c r="T7" s="110"/>
+      <c r="U7" s="110"/>
       <c r="V7" s="78"/>
       <c r="W7" s="75"/>
       <c r="X7" s="82"/>
@@ -1826,29 +1822,29 @@
       <c r="AH7" s="74"/>
     </row>
     <row r="8" spans="1:34" ht="18.75">
-      <c r="A8" s="137"/>
-      <c r="B8" s="137"/>
-      <c r="C8" s="137"/>
-      <c r="D8" s="137"/>
-      <c r="E8" s="137"/>
-      <c r="F8" s="137"/>
-      <c r="G8" s="137"/>
-      <c r="H8" s="137"/>
-      <c r="I8" s="108" t="s">
+      <c r="A8" s="108"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="108"/>
+      <c r="H8" s="108"/>
+      <c r="I8" s="135" t="s">
         <v>104</v>
       </c>
-      <c r="J8" s="108"/>
-      <c r="K8" s="108"/>
-      <c r="L8" s="108"/>
-      <c r="M8" s="108"/>
-      <c r="N8" s="108"/>
-      <c r="O8" s="108"/>
-      <c r="P8" s="108"/>
-      <c r="Q8" s="108"/>
-      <c r="R8" s="108"/>
-      <c r="S8" s="108"/>
-      <c r="T8" s="108"/>
-      <c r="U8" s="108"/>
+      <c r="J8" s="135"/>
+      <c r="K8" s="135"/>
+      <c r="L8" s="135"/>
+      <c r="M8" s="135"/>
+      <c r="N8" s="135"/>
+      <c r="O8" s="135"/>
+      <c r="P8" s="135"/>
+      <c r="Q8" s="135"/>
+      <c r="R8" s="135"/>
+      <c r="S8" s="135"/>
+      <c r="T8" s="135"/>
+      <c r="U8" s="135"/>
       <c r="V8" s="68"/>
       <c r="W8" s="75"/>
       <c r="X8" s="82"/>
@@ -1864,27 +1860,27 @@
       <c r="AH8" s="74"/>
     </row>
     <row r="9" spans="1:34" ht="30.75" customHeight="1">
-      <c r="A9" s="138"/>
-      <c r="B9" s="138"/>
-      <c r="C9" s="138"/>
-      <c r="D9" s="138"/>
-      <c r="E9" s="138"/>
-      <c r="F9" s="138"/>
-      <c r="G9" s="138"/>
-      <c r="H9" s="138"/>
-      <c r="I9" s="139"/>
-      <c r="J9" s="139"/>
-      <c r="K9" s="139"/>
-      <c r="L9" s="139"/>
-      <c r="M9" s="139"/>
-      <c r="N9" s="139"/>
-      <c r="O9" s="139"/>
-      <c r="P9" s="139"/>
-      <c r="Q9" s="139"/>
-      <c r="R9" s="139"/>
-      <c r="S9" s="139"/>
-      <c r="T9" s="139"/>
-      <c r="U9" s="139"/>
+      <c r="A9" s="109"/>
+      <c r="B9" s="109"/>
+      <c r="C9" s="109"/>
+      <c r="D9" s="109"/>
+      <c r="E9" s="109"/>
+      <c r="F9" s="109"/>
+      <c r="G9" s="109"/>
+      <c r="H9" s="109"/>
+      <c r="I9" s="111"/>
+      <c r="J9" s="111"/>
+      <c r="K9" s="111"/>
+      <c r="L9" s="111"/>
+      <c r="M9" s="111"/>
+      <c r="N9" s="111"/>
+      <c r="O9" s="111"/>
+      <c r="P9" s="111"/>
+      <c r="Q9" s="111"/>
+      <c r="R9" s="111"/>
+      <c r="S9" s="111"/>
+      <c r="T9" s="111"/>
+      <c r="U9" s="111"/>
       <c r="V9" s="68"/>
       <c r="W9" s="85"/>
       <c r="X9" s="86"/>
@@ -1896,126 +1892,126 @@
       <c r="AD9" s="76"/>
       <c r="AE9" s="77"/>
       <c r="AF9" s="76"/>
-      <c r="AG9" s="107" t="s">
+      <c r="AG9" s="134" t="s">
         <v>32</v>
       </c>
-      <c r="AH9" s="107"/>
+      <c r="AH9" s="134"/>
     </row>
     <row r="10" spans="1:34" ht="27.75" customHeight="1">
-      <c r="A10" s="140" t="s">
+      <c r="A10" s="113" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="109" t="s">
+      <c r="B10" s="114" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="109" t="s">
+      <c r="C10" s="114" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109" t="s">
+      <c r="D10" s="114"/>
+      <c r="E10" s="114" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="109"/>
-      <c r="G10" s="111" t="s">
+      <c r="F10" s="114"/>
+      <c r="G10" s="119" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="113"/>
-      <c r="I10" s="113"/>
-      <c r="J10" s="113"/>
-      <c r="K10" s="113"/>
-      <c r="L10" s="113"/>
-      <c r="M10" s="113"/>
-      <c r="N10" s="113"/>
-      <c r="O10" s="113"/>
-      <c r="P10" s="113"/>
-      <c r="Q10" s="113"/>
-      <c r="R10" s="112"/>
-      <c r="S10" s="111" t="s">
+      <c r="H10" s="120"/>
+      <c r="I10" s="120"/>
+      <c r="J10" s="120"/>
+      <c r="K10" s="120"/>
+      <c r="L10" s="120"/>
+      <c r="M10" s="120"/>
+      <c r="N10" s="120"/>
+      <c r="O10" s="120"/>
+      <c r="P10" s="120"/>
+      <c r="Q10" s="120"/>
+      <c r="R10" s="121"/>
+      <c r="S10" s="119" t="s">
         <v>26</v>
       </c>
-      <c r="T10" s="113"/>
-      <c r="U10" s="113"/>
-      <c r="V10" s="113"/>
-      <c r="W10" s="113"/>
-      <c r="X10" s="113"/>
-      <c r="Y10" s="113"/>
-      <c r="Z10" s="113"/>
-      <c r="AA10" s="113"/>
-      <c r="AB10" s="113"/>
-      <c r="AC10" s="113"/>
-      <c r="AD10" s="112"/>
-      <c r="AE10" s="119" t="s">
+      <c r="T10" s="120"/>
+      <c r="U10" s="120"/>
+      <c r="V10" s="120"/>
+      <c r="W10" s="120"/>
+      <c r="X10" s="120"/>
+      <c r="Y10" s="120"/>
+      <c r="Z10" s="120"/>
+      <c r="AA10" s="120"/>
+      <c r="AB10" s="120"/>
+      <c r="AC10" s="120"/>
+      <c r="AD10" s="121"/>
+      <c r="AE10" s="124" t="s">
         <v>25</v>
       </c>
-      <c r="AF10" s="120"/>
-      <c r="AG10" s="123" t="s">
+      <c r="AF10" s="125"/>
+      <c r="AG10" s="128" t="s">
         <v>24</v>
       </c>
-      <c r="AH10" s="124"/>
+      <c r="AH10" s="129"/>
     </row>
     <row r="11" spans="1:34" ht="179.25" customHeight="1">
-      <c r="A11" s="140"/>
-      <c r="B11" s="109"/>
-      <c r="C11" s="109"/>
-      <c r="D11" s="109"/>
-      <c r="E11" s="109"/>
-      <c r="F11" s="109"/>
-      <c r="G11" s="116" t="s">
+      <c r="A11" s="113"/>
+      <c r="B11" s="114"/>
+      <c r="C11" s="114"/>
+      <c r="D11" s="114"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="114"/>
+      <c r="G11" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="116"/>
-      <c r="I11" s="116" t="s">
+      <c r="H11" s="107"/>
+      <c r="I11" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="116"/>
-      <c r="K11" s="109" t="s">
+      <c r="J11" s="107"/>
+      <c r="K11" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="L11" s="109"/>
-      <c r="M11" s="109" t="s">
+      <c r="L11" s="114"/>
+      <c r="M11" s="114" t="s">
         <v>73</v>
       </c>
-      <c r="N11" s="110"/>
-      <c r="O11" s="114" t="s">
+      <c r="N11" s="136"/>
+      <c r="O11" s="137" t="s">
         <v>20</v>
       </c>
-      <c r="P11" s="115"/>
-      <c r="Q11" s="114" t="s">
+      <c r="P11" s="138"/>
+      <c r="Q11" s="137" t="s">
         <v>19</v>
       </c>
-      <c r="R11" s="115"/>
-      <c r="S11" s="111" t="s">
+      <c r="R11" s="138"/>
+      <c r="S11" s="119" t="s">
         <v>23</v>
       </c>
-      <c r="T11" s="112"/>
-      <c r="U11" s="109" t="s">
+      <c r="T11" s="121"/>
+      <c r="U11" s="114" t="s">
         <v>22</v>
       </c>
-      <c r="V11" s="109"/>
-      <c r="W11" s="109" t="s">
+      <c r="V11" s="114"/>
+      <c r="W11" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="X11" s="109"/>
-      <c r="Y11" s="109" t="s">
+      <c r="X11" s="114"/>
+      <c r="Y11" s="114" t="s">
         <v>73</v>
       </c>
-      <c r="Z11" s="110"/>
-      <c r="AA11" s="109" t="s">
+      <c r="Z11" s="136"/>
+      <c r="AA11" s="114" t="s">
         <v>20</v>
       </c>
-      <c r="AB11" s="110"/>
-      <c r="AC11" s="127" t="s">
+      <c r="AB11" s="136"/>
+      <c r="AC11" s="132" t="s">
         <v>19</v>
       </c>
-      <c r="AD11" s="128"/>
-      <c r="AE11" s="121"/>
-      <c r="AF11" s="122"/>
-      <c r="AG11" s="125"/>
-      <c r="AH11" s="126"/>
+      <c r="AD11" s="133"/>
+      <c r="AE11" s="126"/>
+      <c r="AF11" s="127"/>
+      <c r="AG11" s="130"/>
+      <c r="AH11" s="131"/>
     </row>
     <row r="12" spans="1:34" ht="26.25" customHeight="1">
-      <c r="A12" s="140"/>
-      <c r="B12" s="109"/>
+      <c r="A12" s="113"/>
+      <c r="B12" s="114"/>
       <c r="C12" s="10" t="s">
         <v>17</v>
       </c>
@@ -2366,8 +2362,14 @@
       <c r="B15" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="87"/>
-      <c r="D15" s="88"/>
+      <c r="C15" s="87">
+        <f>SUM(C16)</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="88">
+        <f>SUM(D16)</f>
+        <v>0</v>
+      </c>
       <c r="E15" s="4">
         <f>G15+S15</f>
         <v>0</v>
@@ -2384,16 +2386,46 @@
         <f t="shared" ref="H15:H71" si="3">J15+L15+N15+P15+R15</f>
         <v>0</v>
       </c>
-      <c r="I15" s="104"/>
-      <c r="J15" s="105"/>
-      <c r="K15" s="104"/>
-      <c r="L15" s="105"/>
-      <c r="M15" s="104"/>
-      <c r="N15" s="105"/>
-      <c r="O15" s="104"/>
-      <c r="P15" s="105"/>
-      <c r="Q15" s="104"/>
-      <c r="R15" s="105"/>
+      <c r="I15" s="87">
+        <f>SUM(I16)</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="88">
+        <f>SUM(J16)</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="87">
+        <f>SUM(K16)</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="88">
+        <f>SUM(L16)</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="87">
+        <f>SUM(M16)</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="88">
+        <f>SUM(N16)</f>
+        <v>0</v>
+      </c>
+      <c r="O15" s="87">
+        <f>SUM(O16)</f>
+        <v>0</v>
+      </c>
+      <c r="P15" s="88">
+        <f>SUM(P16)</f>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="87">
+        <f>SUM(Q16)</f>
+        <v>0</v>
+      </c>
+      <c r="R15" s="88">
+        <f>SUM(R16)</f>
+        <v>0</v>
+      </c>
       <c r="S15" s="27">
         <f t="shared" ref="S15:S71" si="4">U15+W15+Y15+AA15+AC15</f>
         <v>0</v>
@@ -2402,20 +2434,62 @@
         <f t="shared" ref="T15:T71" si="5">V15+X15+Z15+AB15+AD15</f>
         <v>0</v>
       </c>
-      <c r="U15" s="104"/>
-      <c r="V15" s="105"/>
-      <c r="W15" s="104"/>
-      <c r="X15" s="105"/>
-      <c r="Y15" s="104"/>
-      <c r="Z15" s="105"/>
-      <c r="AA15" s="104"/>
-      <c r="AB15" s="105"/>
-      <c r="AC15" s="104"/>
-      <c r="AD15" s="105"/>
-      <c r="AE15" s="104"/>
-      <c r="AF15" s="105"/>
-      <c r="AG15" s="104"/>
-      <c r="AH15" s="105"/>
+      <c r="U15" s="87">
+        <f>SUM(U16)</f>
+        <v>0</v>
+      </c>
+      <c r="V15" s="88">
+        <f>SUM(V16)</f>
+        <v>0</v>
+      </c>
+      <c r="W15" s="87">
+        <f>SUM(W16)</f>
+        <v>0</v>
+      </c>
+      <c r="X15" s="88">
+        <f>SUM(X16)</f>
+        <v>0</v>
+      </c>
+      <c r="Y15" s="87">
+        <f>SUM(Y16)</f>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="88">
+        <f>SUM(Z16)</f>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="87">
+        <f>SUM(AA16)</f>
+        <v>0</v>
+      </c>
+      <c r="AB15" s="88">
+        <f>SUM(AB16)</f>
+        <v>0</v>
+      </c>
+      <c r="AC15" s="87">
+        <f>SUM(AC16)</f>
+        <v>0</v>
+      </c>
+      <c r="AD15" s="88">
+        <f>SUM(AD16)</f>
+        <v>0</v>
+      </c>
+      <c r="AE15" s="87">
+        <f>SUM(AE16)</f>
+        <v>0</v>
+      </c>
+      <c r="AF15" s="88">
+        <f>SUM(AF16)</f>
+        <v>0</v>
+      </c>
+      <c r="AG15" s="87">
+        <f>SUM(AG16)</f>
+        <v>0</v>
+      </c>
+      <c r="AH15" s="88">
+        <f>SUM(AH16)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:34" ht="71.25" customHeight="1">
       <c r="A16" s="31" t="s">
@@ -2482,8 +2556,14 @@
       <c r="B17" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="C17" s="91"/>
-      <c r="D17" s="92"/>
+      <c r="C17" s="91">
+        <f>SUM(C18:C20)</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="92">
+        <f>SUM(D18:D20)</f>
+        <v>0</v>
+      </c>
       <c r="E17" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -2500,16 +2580,46 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I17" s="91"/>
-      <c r="J17" s="92"/>
-      <c r="K17" s="91"/>
-      <c r="L17" s="92"/>
-      <c r="M17" s="91"/>
-      <c r="N17" s="92"/>
-      <c r="O17" s="91"/>
-      <c r="P17" s="92"/>
-      <c r="Q17" s="91"/>
-      <c r="R17" s="92"/>
+      <c r="I17" s="91">
+        <f>SUM(I18:I20)</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="92">
+        <f>SUM(J18:J20)</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="91">
+        <f>SUM(K18:K20)</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="92">
+        <f>SUM(L18:L20)</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="91">
+        <f>SUM(M18:M20)</f>
+        <v>0</v>
+      </c>
+      <c r="N17" s="92">
+        <f>SUM(N18:N20)</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="91">
+        <f>SUM(O18:O20)</f>
+        <v>0</v>
+      </c>
+      <c r="P17" s="92">
+        <f>SUM(P18:P20)</f>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="91">
+        <f>SUM(Q18:Q20)</f>
+        <v>0</v>
+      </c>
+      <c r="R17" s="92">
+        <f>SUM(R18:R20)</f>
+        <v>0</v>
+      </c>
       <c r="S17" s="27">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2518,20 +2628,62 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U17" s="91"/>
-      <c r="V17" s="92"/>
-      <c r="W17" s="91"/>
-      <c r="X17" s="92"/>
-      <c r="Y17" s="91"/>
-      <c r="Z17" s="92"/>
-      <c r="AA17" s="91"/>
-      <c r="AB17" s="92"/>
-      <c r="AC17" s="91"/>
-      <c r="AD17" s="92"/>
-      <c r="AE17" s="91"/>
-      <c r="AF17" s="92"/>
-      <c r="AG17" s="91"/>
-      <c r="AH17" s="92"/>
+      <c r="U17" s="91">
+        <f>SUM(U18:U20)</f>
+        <v>0</v>
+      </c>
+      <c r="V17" s="92">
+        <f>SUM(V18:V20)</f>
+        <v>0</v>
+      </c>
+      <c r="W17" s="91">
+        <f>SUM(W18:W20)</f>
+        <v>0</v>
+      </c>
+      <c r="X17" s="92">
+        <f>SUM(X18:X20)</f>
+        <v>0</v>
+      </c>
+      <c r="Y17" s="91">
+        <f>SUM(Y18:Y20)</f>
+        <v>0</v>
+      </c>
+      <c r="Z17" s="92">
+        <f>SUM(Z18:Z20)</f>
+        <v>0</v>
+      </c>
+      <c r="AA17" s="91">
+        <f>SUM(AA18:AA20)</f>
+        <v>0</v>
+      </c>
+      <c r="AB17" s="92">
+        <f>SUM(AB18:AB20)</f>
+        <v>0</v>
+      </c>
+      <c r="AC17" s="91">
+        <f>SUM(AC18:AC20)</f>
+        <v>0</v>
+      </c>
+      <c r="AD17" s="92">
+        <f>SUM(AD18:AD20)</f>
+        <v>0</v>
+      </c>
+      <c r="AE17" s="91">
+        <f>SUM(AE18:AE20)</f>
+        <v>0</v>
+      </c>
+      <c r="AF17" s="92">
+        <f>SUM(AF18:AF20)</f>
+        <v>0</v>
+      </c>
+      <c r="AG17" s="91">
+        <f>SUM(AG18:AG20)</f>
+        <v>0</v>
+      </c>
+      <c r="AH17" s="92">
+        <f>SUM(AH18:AH20)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:34" ht="105" customHeight="1">
       <c r="A18" s="31" t="s">
@@ -2714,8 +2866,14 @@
       <c r="B21" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="91"/>
-      <c r="D21" s="94"/>
+      <c r="C21" s="91">
+        <f>SUM(C22)</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="92">
+        <f>SUM(D22)</f>
+        <v>0</v>
+      </c>
       <c r="E21" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -2732,16 +2890,46 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I21" s="91"/>
-      <c r="J21" s="92"/>
-      <c r="K21" s="91"/>
-      <c r="L21" s="92"/>
-      <c r="M21" s="91"/>
-      <c r="N21" s="92"/>
-      <c r="O21" s="91"/>
-      <c r="P21" s="92"/>
-      <c r="Q21" s="91"/>
-      <c r="R21" s="92"/>
+      <c r="I21" s="91">
+        <f>SUM(I22)</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="92">
+        <f>SUM(J22)</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="91">
+        <f>SUM(K22)</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="92">
+        <f>SUM(L22)</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="91">
+        <f>SUM(M22)</f>
+        <v>0</v>
+      </c>
+      <c r="N21" s="92">
+        <f>SUM(N22)</f>
+        <v>0</v>
+      </c>
+      <c r="O21" s="91">
+        <f>SUM(O22)</f>
+        <v>0</v>
+      </c>
+      <c r="P21" s="92">
+        <f>SUM(P22)</f>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="91">
+        <f>SUM(Q22)</f>
+        <v>0</v>
+      </c>
+      <c r="R21" s="92">
+        <f>SUM(R22)</f>
+        <v>0</v>
+      </c>
       <c r="S21" s="27">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2750,20 +2938,62 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U21" s="91"/>
-      <c r="V21" s="92"/>
-      <c r="W21" s="91"/>
-      <c r="X21" s="92"/>
-      <c r="Y21" s="91"/>
-      <c r="Z21" s="92"/>
-      <c r="AA21" s="91"/>
-      <c r="AB21" s="92"/>
-      <c r="AC21" s="91"/>
-      <c r="AD21" s="92"/>
-      <c r="AE21" s="91"/>
-      <c r="AF21" s="92"/>
-      <c r="AG21" s="91"/>
-      <c r="AH21" s="92"/>
+      <c r="U21" s="91">
+        <f>SUM(U22)</f>
+        <v>0</v>
+      </c>
+      <c r="V21" s="92">
+        <f>SUM(V22)</f>
+        <v>0</v>
+      </c>
+      <c r="W21" s="91">
+        <f>SUM(W22)</f>
+        <v>0</v>
+      </c>
+      <c r="X21" s="92">
+        <f>SUM(X22)</f>
+        <v>0</v>
+      </c>
+      <c r="Y21" s="91">
+        <f>SUM(Y22)</f>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="92">
+        <f>SUM(Z22)</f>
+        <v>0</v>
+      </c>
+      <c r="AA21" s="91">
+        <f>SUM(AA22)</f>
+        <v>0</v>
+      </c>
+      <c r="AB21" s="92">
+        <f>SUM(AB22)</f>
+        <v>0</v>
+      </c>
+      <c r="AC21" s="91">
+        <f>SUM(AC22)</f>
+        <v>0</v>
+      </c>
+      <c r="AD21" s="92">
+        <f>SUM(AD22)</f>
+        <v>0</v>
+      </c>
+      <c r="AE21" s="91">
+        <f>SUM(AE22)</f>
+        <v>0</v>
+      </c>
+      <c r="AF21" s="92">
+        <f>SUM(AF22)</f>
+        <v>0</v>
+      </c>
+      <c r="AG21" s="91">
+        <f>SUM(AG22)</f>
+        <v>0</v>
+      </c>
+      <c r="AH21" s="92">
+        <f>SUM(AH22)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:34" ht="48" customHeight="1">
       <c r="A22" s="31" t="s">
@@ -2830,8 +3060,14 @@
       <c r="B23" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="91"/>
-      <c r="D23" s="92"/>
+      <c r="C23" s="91">
+        <f>SUM(C24:C26)</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="92">
+        <f>SUM(D24:D26)</f>
+        <v>0</v>
+      </c>
       <c r="E23" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -2848,16 +3084,46 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I23" s="91"/>
-      <c r="J23" s="92"/>
-      <c r="K23" s="91"/>
-      <c r="L23" s="92"/>
-      <c r="M23" s="91"/>
-      <c r="N23" s="92"/>
-      <c r="O23" s="91"/>
-      <c r="P23" s="92"/>
-      <c r="Q23" s="91"/>
-      <c r="R23" s="92"/>
+      <c r="I23" s="91">
+        <f>SUM(I24:I26)</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="92">
+        <f>SUM(J24:J26)</f>
+        <v>0</v>
+      </c>
+      <c r="K23" s="91">
+        <f>SUM(K24:K26)</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="92">
+        <f>SUM(L24:L26)</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="91">
+        <f>SUM(M24:M26)</f>
+        <v>0</v>
+      </c>
+      <c r="N23" s="92">
+        <f>SUM(N24:N26)</f>
+        <v>0</v>
+      </c>
+      <c r="O23" s="91">
+        <f>SUM(O24:O26)</f>
+        <v>0</v>
+      </c>
+      <c r="P23" s="92">
+        <f>SUM(P24:P26)</f>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="91">
+        <f>SUM(Q24:Q26)</f>
+        <v>0</v>
+      </c>
+      <c r="R23" s="92">
+        <f>SUM(R24:R26)</f>
+        <v>0</v>
+      </c>
       <c r="S23" s="27">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -2866,20 +3132,62 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U23" s="91"/>
-      <c r="V23" s="92"/>
-      <c r="W23" s="91"/>
-      <c r="X23" s="92"/>
-      <c r="Y23" s="91"/>
-      <c r="Z23" s="92"/>
-      <c r="AA23" s="91"/>
-      <c r="AB23" s="92"/>
-      <c r="AC23" s="91"/>
-      <c r="AD23" s="92"/>
-      <c r="AE23" s="91"/>
-      <c r="AF23" s="92"/>
-      <c r="AG23" s="91"/>
-      <c r="AH23" s="92"/>
+      <c r="U23" s="91">
+        <f>SUM(U24:U26)</f>
+        <v>0</v>
+      </c>
+      <c r="V23" s="92">
+        <f>SUM(V24:V26)</f>
+        <v>0</v>
+      </c>
+      <c r="W23" s="91">
+        <f>SUM(W24:W26)</f>
+        <v>0</v>
+      </c>
+      <c r="X23" s="92">
+        <f>SUM(X24:X26)</f>
+        <v>0</v>
+      </c>
+      <c r="Y23" s="91">
+        <f>SUM(Y24:Y26)</f>
+        <v>0</v>
+      </c>
+      <c r="Z23" s="92">
+        <f>SUM(Z24:Z26)</f>
+        <v>0</v>
+      </c>
+      <c r="AA23" s="91">
+        <f>SUM(AA24:AA26)</f>
+        <v>0</v>
+      </c>
+      <c r="AB23" s="92">
+        <f>SUM(AB24:AB26)</f>
+        <v>0</v>
+      </c>
+      <c r="AC23" s="91">
+        <f>SUM(AC24:AC26)</f>
+        <v>0</v>
+      </c>
+      <c r="AD23" s="92">
+        <f>SUM(AD24:AD26)</f>
+        <v>0</v>
+      </c>
+      <c r="AE23" s="91">
+        <f>SUM(AE24:AE26)</f>
+        <v>0</v>
+      </c>
+      <c r="AF23" s="92">
+        <f>SUM(AF24:AF26)</f>
+        <v>0</v>
+      </c>
+      <c r="AG23" s="91">
+        <f>SUM(AG24:AG26)</f>
+        <v>0</v>
+      </c>
+      <c r="AH23" s="92">
+        <f>SUM(AH24:AH26)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:34" ht="117" customHeight="1">
       <c r="A24" s="31" t="s">
@@ -3196,8 +3504,14 @@
       <c r="B28" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="91"/>
-      <c r="D28" s="94"/>
+      <c r="C28" s="91">
+        <f>SUM(C29)</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="92">
+        <f>SUM(D29)</f>
+        <v>0</v>
+      </c>
       <c r="E28" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -3214,16 +3528,46 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I28" s="91"/>
-      <c r="J28" s="92"/>
-      <c r="K28" s="91"/>
-      <c r="L28" s="92"/>
-      <c r="M28" s="91"/>
-      <c r="N28" s="92"/>
-      <c r="O28" s="91"/>
-      <c r="P28" s="92"/>
-      <c r="Q28" s="91"/>
-      <c r="R28" s="92"/>
+      <c r="I28" s="91">
+        <f>SUM(I29)</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="92">
+        <f>SUM(J29)</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="91">
+        <f>SUM(K29)</f>
+        <v>0</v>
+      </c>
+      <c r="L28" s="92">
+        <f>SUM(L29)</f>
+        <v>0</v>
+      </c>
+      <c r="M28" s="91">
+        <f>SUM(M29)</f>
+        <v>0</v>
+      </c>
+      <c r="N28" s="92">
+        <f>SUM(N29)</f>
+        <v>0</v>
+      </c>
+      <c r="O28" s="91">
+        <f>SUM(O29)</f>
+        <v>0</v>
+      </c>
+      <c r="P28" s="92">
+        <f>SUM(P29)</f>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="91">
+        <f>SUM(Q29)</f>
+        <v>0</v>
+      </c>
+      <c r="R28" s="92">
+        <f>SUM(R29)</f>
+        <v>0</v>
+      </c>
       <c r="S28" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3232,20 +3576,62 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U28" s="91"/>
-      <c r="V28" s="92"/>
-      <c r="W28" s="91"/>
-      <c r="X28" s="92"/>
-      <c r="Y28" s="91"/>
-      <c r="Z28" s="92"/>
-      <c r="AA28" s="91"/>
-      <c r="AB28" s="92"/>
-      <c r="AC28" s="91"/>
-      <c r="AD28" s="92"/>
-      <c r="AE28" s="91"/>
-      <c r="AF28" s="92"/>
-      <c r="AG28" s="91"/>
-      <c r="AH28" s="92"/>
+      <c r="U28" s="91">
+        <f>SUM(U29)</f>
+        <v>0</v>
+      </c>
+      <c r="V28" s="92">
+        <f>SUM(V29)</f>
+        <v>0</v>
+      </c>
+      <c r="W28" s="91">
+        <f>SUM(W29)</f>
+        <v>0</v>
+      </c>
+      <c r="X28" s="92">
+        <f>SUM(X29)</f>
+        <v>0</v>
+      </c>
+      <c r="Y28" s="91">
+        <f>SUM(Y29)</f>
+        <v>0</v>
+      </c>
+      <c r="Z28" s="92">
+        <f>SUM(Z29)</f>
+        <v>0</v>
+      </c>
+      <c r="AA28" s="91">
+        <f>SUM(AA29)</f>
+        <v>0</v>
+      </c>
+      <c r="AB28" s="92">
+        <f>SUM(AB29)</f>
+        <v>0</v>
+      </c>
+      <c r="AC28" s="91">
+        <f>SUM(AC29)</f>
+        <v>0</v>
+      </c>
+      <c r="AD28" s="92">
+        <f>SUM(AD29)</f>
+        <v>0</v>
+      </c>
+      <c r="AE28" s="91">
+        <f>SUM(AE29)</f>
+        <v>0</v>
+      </c>
+      <c r="AF28" s="92">
+        <f>SUM(AF29)</f>
+        <v>0</v>
+      </c>
+      <c r="AG28" s="91">
+        <f>SUM(AG29)</f>
+        <v>0</v>
+      </c>
+      <c r="AH28" s="92">
+        <f>SUM(AH29)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:34" ht="71.25" customHeight="1">
       <c r="A29" s="31" t="s">
@@ -3312,8 +3698,14 @@
       <c r="B30" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="91"/>
-      <c r="D30" s="92"/>
+      <c r="C30" s="91">
+        <f>SUM(C31:C36)</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="92">
+        <f>SUM(D31:D36)</f>
+        <v>0</v>
+      </c>
       <c r="E30" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -3330,16 +3722,46 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I30" s="91"/>
-      <c r="J30" s="92"/>
-      <c r="K30" s="91"/>
-      <c r="L30" s="92"/>
-      <c r="M30" s="91"/>
-      <c r="N30" s="92"/>
-      <c r="O30" s="91"/>
-      <c r="P30" s="92"/>
-      <c r="Q30" s="91"/>
-      <c r="R30" s="92"/>
+      <c r="I30" s="91">
+        <f>SUM(I31:I36)</f>
+        <v>0</v>
+      </c>
+      <c r="J30" s="92">
+        <f>SUM(J31:J36)</f>
+        <v>0</v>
+      </c>
+      <c r="K30" s="91">
+        <f>SUM(K31:K36)</f>
+        <v>0</v>
+      </c>
+      <c r="L30" s="92">
+        <f>SUM(L31:L36)</f>
+        <v>0</v>
+      </c>
+      <c r="M30" s="91">
+        <f>SUM(M31:M36)</f>
+        <v>0</v>
+      </c>
+      <c r="N30" s="92">
+        <f>SUM(N31:N36)</f>
+        <v>0</v>
+      </c>
+      <c r="O30" s="91">
+        <f>SUM(O31:O36)</f>
+        <v>0</v>
+      </c>
+      <c r="P30" s="92">
+        <f>SUM(P31:P36)</f>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="91">
+        <f>SUM(Q31:Q36)</f>
+        <v>0</v>
+      </c>
+      <c r="R30" s="92">
+        <f>SUM(R31:R36)</f>
+        <v>0</v>
+      </c>
       <c r="S30" s="27">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3348,20 +3770,62 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U30" s="91"/>
-      <c r="V30" s="92"/>
-      <c r="W30" s="91"/>
-      <c r="X30" s="92"/>
-      <c r="Y30" s="91"/>
-      <c r="Z30" s="92"/>
-      <c r="AA30" s="91"/>
-      <c r="AB30" s="92"/>
-      <c r="AC30" s="91"/>
-      <c r="AD30" s="92"/>
-      <c r="AE30" s="91"/>
-      <c r="AF30" s="92"/>
-      <c r="AG30" s="91"/>
-      <c r="AH30" s="92"/>
+      <c r="U30" s="91">
+        <f>SUM(U31:U36)</f>
+        <v>0</v>
+      </c>
+      <c r="V30" s="92">
+        <f>SUM(V31:V36)</f>
+        <v>0</v>
+      </c>
+      <c r="W30" s="91">
+        <f>SUM(W31:W36)</f>
+        <v>0</v>
+      </c>
+      <c r="X30" s="92">
+        <f>SUM(X31:X36)</f>
+        <v>0</v>
+      </c>
+      <c r="Y30" s="91">
+        <f>SUM(Y31:Y36)</f>
+        <v>0</v>
+      </c>
+      <c r="Z30" s="92">
+        <f>SUM(Z31:Z36)</f>
+        <v>0</v>
+      </c>
+      <c r="AA30" s="91">
+        <f>SUM(AA31:AA36)</f>
+        <v>0</v>
+      </c>
+      <c r="AB30" s="92">
+        <f>SUM(AB31:AB36)</f>
+        <v>0</v>
+      </c>
+      <c r="AC30" s="91">
+        <f>SUM(AC31:AC36)</f>
+        <v>0</v>
+      </c>
+      <c r="AD30" s="92">
+        <f>SUM(AD31:AD36)</f>
+        <v>0</v>
+      </c>
+      <c r="AE30" s="91">
+        <f>SUM(AE31:AE36)</f>
+        <v>0</v>
+      </c>
+      <c r="AF30" s="92">
+        <f>SUM(AF31:AF36)</f>
+        <v>0</v>
+      </c>
+      <c r="AG30" s="91">
+        <f>SUM(AG31:AG36)</f>
+        <v>0</v>
+      </c>
+      <c r="AH30" s="92">
+        <f>SUM(AH31:AH36)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:34" ht="131.25">
       <c r="A31" s="45" t="s">
@@ -3718,8 +4182,14 @@
       <c r="B37" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="C37" s="91"/>
-      <c r="D37" s="94"/>
+      <c r="C37" s="91">
+        <f>SUM(C38:C39)</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="92">
+        <f>SUM(D38:D39)</f>
+        <v>0</v>
+      </c>
       <c r="E37" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -3736,16 +4206,46 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I37" s="91"/>
-      <c r="J37" s="92"/>
-      <c r="K37" s="91"/>
-      <c r="L37" s="92"/>
-      <c r="M37" s="91"/>
-      <c r="N37" s="92"/>
-      <c r="O37" s="91"/>
-      <c r="P37" s="92"/>
-      <c r="Q37" s="91"/>
-      <c r="R37" s="92"/>
+      <c r="I37" s="91">
+        <f>SUM(I38:I39)</f>
+        <v>0</v>
+      </c>
+      <c r="J37" s="92">
+        <f>SUM(J38:J39)</f>
+        <v>0</v>
+      </c>
+      <c r="K37" s="91">
+        <f>SUM(K38:K39)</f>
+        <v>0</v>
+      </c>
+      <c r="L37" s="92">
+        <f>SUM(L38:L39)</f>
+        <v>0</v>
+      </c>
+      <c r="M37" s="91">
+        <f>SUM(M38:M39)</f>
+        <v>0</v>
+      </c>
+      <c r="N37" s="92">
+        <f>SUM(N38:N39)</f>
+        <v>0</v>
+      </c>
+      <c r="O37" s="91">
+        <f>SUM(O38:O39)</f>
+        <v>0</v>
+      </c>
+      <c r="P37" s="92">
+        <f>SUM(P38:P39)</f>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="91">
+        <f>SUM(Q38:Q39)</f>
+        <v>0</v>
+      </c>
+      <c r="R37" s="92">
+        <f>SUM(R38:R39)</f>
+        <v>0</v>
+      </c>
       <c r="S37" s="27">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3754,20 +4254,62 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U37" s="91"/>
-      <c r="V37" s="92"/>
-      <c r="W37" s="91"/>
-      <c r="X37" s="92"/>
-      <c r="Y37" s="91"/>
-      <c r="Z37" s="92"/>
-      <c r="AA37" s="91"/>
-      <c r="AB37" s="92"/>
-      <c r="AC37" s="91"/>
-      <c r="AD37" s="92"/>
-      <c r="AE37" s="91"/>
-      <c r="AF37" s="92"/>
-      <c r="AG37" s="91"/>
-      <c r="AH37" s="92"/>
+      <c r="U37" s="91">
+        <f>SUM(U38:U39)</f>
+        <v>0</v>
+      </c>
+      <c r="V37" s="92">
+        <f>SUM(V38:V39)</f>
+        <v>0</v>
+      </c>
+      <c r="W37" s="91">
+        <f>SUM(W38:W39)</f>
+        <v>0</v>
+      </c>
+      <c r="X37" s="92">
+        <f>SUM(X38:X39)</f>
+        <v>0</v>
+      </c>
+      <c r="Y37" s="91">
+        <f>SUM(Y38:Y39)</f>
+        <v>0</v>
+      </c>
+      <c r="Z37" s="92">
+        <f>SUM(Z38:Z39)</f>
+        <v>0</v>
+      </c>
+      <c r="AA37" s="91">
+        <f>SUM(AA38:AA39)</f>
+        <v>0</v>
+      </c>
+      <c r="AB37" s="92">
+        <f>SUM(AB38:AB39)</f>
+        <v>0</v>
+      </c>
+      <c r="AC37" s="91">
+        <f>SUM(AC38:AC39)</f>
+        <v>0</v>
+      </c>
+      <c r="AD37" s="92">
+        <f>SUM(AD38:AD39)</f>
+        <v>0</v>
+      </c>
+      <c r="AE37" s="91">
+        <f>SUM(AE38:AE39)</f>
+        <v>0</v>
+      </c>
+      <c r="AF37" s="92">
+        <f>SUM(AF38:AF39)</f>
+        <v>0</v>
+      </c>
+      <c r="AG37" s="91">
+        <f>SUM(AG38:AG39)</f>
+        <v>0</v>
+      </c>
+      <c r="AH37" s="92">
+        <f>SUM(AH38:AH39)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="1:34" ht="46.5" customHeight="1">
       <c r="A38" s="31" t="s">
@@ -3892,8 +4434,14 @@
       <c r="B40" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="C40" s="91"/>
-      <c r="D40" s="94"/>
+      <c r="C40" s="91">
+        <f>SUM(C41)</f>
+        <v>0</v>
+      </c>
+      <c r="D40" s="92">
+        <f>SUM(D41)</f>
+        <v>0</v>
+      </c>
       <c r="E40" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -3910,16 +4458,46 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I40" s="91"/>
-      <c r="J40" s="92"/>
-      <c r="K40" s="91"/>
-      <c r="L40" s="92"/>
-      <c r="M40" s="91"/>
-      <c r="N40" s="92"/>
-      <c r="O40" s="91"/>
-      <c r="P40" s="92"/>
-      <c r="Q40" s="91"/>
-      <c r="R40" s="92"/>
+      <c r="I40" s="91">
+        <f>SUM(I41)</f>
+        <v>0</v>
+      </c>
+      <c r="J40" s="92">
+        <f>SUM(J41)</f>
+        <v>0</v>
+      </c>
+      <c r="K40" s="91">
+        <f>SUM(K41)</f>
+        <v>0</v>
+      </c>
+      <c r="L40" s="92">
+        <f>SUM(L41)</f>
+        <v>0</v>
+      </c>
+      <c r="M40" s="91">
+        <f>SUM(M41)</f>
+        <v>0</v>
+      </c>
+      <c r="N40" s="92">
+        <f>SUM(N41)</f>
+        <v>0</v>
+      </c>
+      <c r="O40" s="91">
+        <f>SUM(O41)</f>
+        <v>0</v>
+      </c>
+      <c r="P40" s="92">
+        <f>SUM(P41)</f>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="91">
+        <f>SUM(Q41)</f>
+        <v>0</v>
+      </c>
+      <c r="R40" s="92">
+        <f>SUM(R41)</f>
+        <v>0</v>
+      </c>
       <c r="S40" s="27">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -3928,20 +4506,62 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U40" s="91"/>
-      <c r="V40" s="92"/>
-      <c r="W40" s="91"/>
-      <c r="X40" s="92"/>
-      <c r="Y40" s="91"/>
-      <c r="Z40" s="92"/>
-      <c r="AA40" s="91"/>
-      <c r="AB40" s="92"/>
-      <c r="AC40" s="91"/>
-      <c r="AD40" s="92"/>
-      <c r="AE40" s="91"/>
-      <c r="AF40" s="92"/>
-      <c r="AG40" s="91"/>
-      <c r="AH40" s="92"/>
+      <c r="U40" s="91">
+        <f>SUM(U41)</f>
+        <v>0</v>
+      </c>
+      <c r="V40" s="92">
+        <f>SUM(V41)</f>
+        <v>0</v>
+      </c>
+      <c r="W40" s="91">
+        <f>SUM(W41)</f>
+        <v>0</v>
+      </c>
+      <c r="X40" s="92">
+        <f>SUM(X41)</f>
+        <v>0</v>
+      </c>
+      <c r="Y40" s="91">
+        <f>SUM(Y41)</f>
+        <v>0</v>
+      </c>
+      <c r="Z40" s="92">
+        <f>SUM(Z41)</f>
+        <v>0</v>
+      </c>
+      <c r="AA40" s="91">
+        <f>SUM(AA41)</f>
+        <v>0</v>
+      </c>
+      <c r="AB40" s="92">
+        <f>SUM(AB41)</f>
+        <v>0</v>
+      </c>
+      <c r="AC40" s="91">
+        <f>SUM(AC41)</f>
+        <v>0</v>
+      </c>
+      <c r="AD40" s="92">
+        <f>SUM(AD41)</f>
+        <v>0</v>
+      </c>
+      <c r="AE40" s="91">
+        <f>SUM(AE41)</f>
+        <v>0</v>
+      </c>
+      <c r="AF40" s="92">
+        <f>SUM(AF41)</f>
+        <v>0</v>
+      </c>
+      <c r="AG40" s="91">
+        <f>SUM(AG41)</f>
+        <v>0</v>
+      </c>
+      <c r="AH40" s="92">
+        <f>SUM(AH41)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:34" ht="113.25" customHeight="1">
       <c r="A41" s="31" t="s">
@@ -4066,8 +4686,14 @@
       <c r="B43" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="C43" s="91"/>
-      <c r="D43" s="92"/>
+      <c r="C43" s="91">
+        <f>SUM(C44:C46)</f>
+        <v>0</v>
+      </c>
+      <c r="D43" s="92">
+        <f>SUM(D44:D46)</f>
+        <v>0</v>
+      </c>
       <c r="E43" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -4084,16 +4710,46 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I43" s="91"/>
-      <c r="J43" s="92"/>
-      <c r="K43" s="91"/>
-      <c r="L43" s="92"/>
-      <c r="M43" s="91"/>
-      <c r="N43" s="92"/>
-      <c r="O43" s="91"/>
-      <c r="P43" s="92"/>
-      <c r="Q43" s="91"/>
-      <c r="R43" s="92"/>
+      <c r="I43" s="91">
+        <f>SUM(I44:I46)</f>
+        <v>0</v>
+      </c>
+      <c r="J43" s="92">
+        <f>SUM(J44:J46)</f>
+        <v>0</v>
+      </c>
+      <c r="K43" s="91">
+        <f>SUM(K44:K46)</f>
+        <v>0</v>
+      </c>
+      <c r="L43" s="92">
+        <f>SUM(L44:L46)</f>
+        <v>0</v>
+      </c>
+      <c r="M43" s="91">
+        <f>SUM(M44:M46)</f>
+        <v>0</v>
+      </c>
+      <c r="N43" s="92">
+        <f>SUM(N44:N46)</f>
+        <v>0</v>
+      </c>
+      <c r="O43" s="91">
+        <f>SUM(O44:O46)</f>
+        <v>0</v>
+      </c>
+      <c r="P43" s="92">
+        <f>SUM(P44:P46)</f>
+        <v>0</v>
+      </c>
+      <c r="Q43" s="91">
+        <f>SUM(Q44:Q46)</f>
+        <v>0</v>
+      </c>
+      <c r="R43" s="92">
+        <f>SUM(R44:R46)</f>
+        <v>0</v>
+      </c>
       <c r="S43" s="27">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4102,20 +4758,62 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U43" s="91"/>
-      <c r="V43" s="92"/>
-      <c r="W43" s="91"/>
-      <c r="X43" s="92"/>
-      <c r="Y43" s="91"/>
-      <c r="Z43" s="92"/>
-      <c r="AA43" s="91"/>
-      <c r="AB43" s="92"/>
-      <c r="AC43" s="91"/>
-      <c r="AD43" s="92"/>
-      <c r="AE43" s="91"/>
-      <c r="AF43" s="92"/>
-      <c r="AG43" s="91"/>
-      <c r="AH43" s="92"/>
+      <c r="U43" s="91">
+        <f>SUM(U44:U46)</f>
+        <v>0</v>
+      </c>
+      <c r="V43" s="92">
+        <f>SUM(V44:V46)</f>
+        <v>0</v>
+      </c>
+      <c r="W43" s="91">
+        <f>SUM(W44:W46)</f>
+        <v>0</v>
+      </c>
+      <c r="X43" s="92">
+        <f>SUM(X44:X46)</f>
+        <v>0</v>
+      </c>
+      <c r="Y43" s="91">
+        <f>SUM(Y44:Y46)</f>
+        <v>0</v>
+      </c>
+      <c r="Z43" s="92">
+        <f>SUM(Z44:Z46)</f>
+        <v>0</v>
+      </c>
+      <c r="AA43" s="91">
+        <f>SUM(AA44:AA46)</f>
+        <v>0</v>
+      </c>
+      <c r="AB43" s="92">
+        <f>SUM(AB44:AB46)</f>
+        <v>0</v>
+      </c>
+      <c r="AC43" s="91">
+        <f>SUM(AC44:AC46)</f>
+        <v>0</v>
+      </c>
+      <c r="AD43" s="92">
+        <f>SUM(AD44:AD46)</f>
+        <v>0</v>
+      </c>
+      <c r="AE43" s="91">
+        <f>SUM(AE44:AE46)</f>
+        <v>0</v>
+      </c>
+      <c r="AF43" s="92">
+        <f>SUM(AF44:AF46)</f>
+        <v>0</v>
+      </c>
+      <c r="AG43" s="91">
+        <f>SUM(AG44:AG46)</f>
+        <v>0</v>
+      </c>
+      <c r="AH43" s="92">
+        <f>SUM(AH44:AH46)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:34" ht="48" customHeight="1">
       <c r="A44" s="48">
@@ -4298,8 +4996,14 @@
       <c r="B47" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="C47" s="91"/>
-      <c r="D47" s="92"/>
+      <c r="C47" s="91">
+        <f>SUM(C48:C49)</f>
+        <v>0</v>
+      </c>
+      <c r="D47" s="92">
+        <f>SUM(D48:D49)</f>
+        <v>0</v>
+      </c>
       <c r="E47" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -4316,16 +5020,46 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I47" s="91"/>
-      <c r="J47" s="92"/>
-      <c r="K47" s="91"/>
-      <c r="L47" s="92"/>
-      <c r="M47" s="91"/>
-      <c r="N47" s="92"/>
-      <c r="O47" s="91"/>
-      <c r="P47" s="92"/>
-      <c r="Q47" s="91"/>
-      <c r="R47" s="92"/>
+      <c r="I47" s="91">
+        <f>SUM(I48:I49)</f>
+        <v>0</v>
+      </c>
+      <c r="J47" s="92">
+        <f>SUM(J48:J49)</f>
+        <v>0</v>
+      </c>
+      <c r="K47" s="91">
+        <f>SUM(K48:K49)</f>
+        <v>0</v>
+      </c>
+      <c r="L47" s="92">
+        <f>SUM(L48:L49)</f>
+        <v>0</v>
+      </c>
+      <c r="M47" s="91">
+        <f>SUM(M48:M49)</f>
+        <v>0</v>
+      </c>
+      <c r="N47" s="92">
+        <f>SUM(N48:N49)</f>
+        <v>0</v>
+      </c>
+      <c r="O47" s="91">
+        <f>SUM(O48:O49)</f>
+        <v>0</v>
+      </c>
+      <c r="P47" s="92">
+        <f>SUM(P48:P49)</f>
+        <v>0</v>
+      </c>
+      <c r="Q47" s="91">
+        <f>SUM(Q48:Q49)</f>
+        <v>0</v>
+      </c>
+      <c r="R47" s="92">
+        <f>SUM(R48:R49)</f>
+        <v>0</v>
+      </c>
       <c r="S47" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4334,20 +5068,62 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U47" s="91"/>
-      <c r="V47" s="92"/>
-      <c r="W47" s="91"/>
-      <c r="X47" s="92"/>
-      <c r="Y47" s="91"/>
-      <c r="Z47" s="92"/>
-      <c r="AA47" s="91"/>
-      <c r="AB47" s="92"/>
-      <c r="AC47" s="91"/>
-      <c r="AD47" s="92"/>
-      <c r="AE47" s="91"/>
-      <c r="AF47" s="92"/>
-      <c r="AG47" s="91"/>
-      <c r="AH47" s="92"/>
+      <c r="U47" s="91">
+        <f>SUM(U48:U49)</f>
+        <v>0</v>
+      </c>
+      <c r="V47" s="92">
+        <f>SUM(V48:V49)</f>
+        <v>0</v>
+      </c>
+      <c r="W47" s="91">
+        <f>SUM(W48:W49)</f>
+        <v>0</v>
+      </c>
+      <c r="X47" s="92">
+        <f>SUM(X48:X49)</f>
+        <v>0</v>
+      </c>
+      <c r="Y47" s="91">
+        <f>SUM(Y48:Y49)</f>
+        <v>0</v>
+      </c>
+      <c r="Z47" s="92">
+        <f>SUM(Z48:Z49)</f>
+        <v>0</v>
+      </c>
+      <c r="AA47" s="91">
+        <f>SUM(AA48:AA49)</f>
+        <v>0</v>
+      </c>
+      <c r="AB47" s="92">
+        <f>SUM(AB48:AB49)</f>
+        <v>0</v>
+      </c>
+      <c r="AC47" s="91">
+        <f>SUM(AC48:AC49)</f>
+        <v>0</v>
+      </c>
+      <c r="AD47" s="92">
+        <f>SUM(AD48:AD49)</f>
+        <v>0</v>
+      </c>
+      <c r="AE47" s="91">
+        <f>SUM(AE48:AE49)</f>
+        <v>0</v>
+      </c>
+      <c r="AF47" s="92">
+        <f>SUM(AF48:AF49)</f>
+        <v>0</v>
+      </c>
+      <c r="AG47" s="91">
+        <f>SUM(AG48:AG49)</f>
+        <v>0</v>
+      </c>
+      <c r="AH47" s="92">
+        <f>SUM(AH48:AH49)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:34" ht="55.5" customHeight="1">
       <c r="A48" s="50">
@@ -4375,15 +5151,15 @@
         <v>0</v>
       </c>
       <c r="I48" s="97"/>
-      <c r="J48" s="106"/>
+      <c r="J48" s="104"/>
       <c r="K48" s="97"/>
-      <c r="L48" s="106"/>
+      <c r="L48" s="104"/>
       <c r="M48" s="97"/>
-      <c r="N48" s="106"/>
+      <c r="N48" s="104"/>
       <c r="O48" s="97"/>
-      <c r="P48" s="106"/>
+      <c r="P48" s="104"/>
       <c r="Q48" s="97"/>
-      <c r="R48" s="106"/>
+      <c r="R48" s="104"/>
       <c r="S48" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4393,19 +5169,19 @@
         <v>0</v>
       </c>
       <c r="U48" s="97"/>
-      <c r="V48" s="106"/>
+      <c r="V48" s="104"/>
       <c r="W48" s="97"/>
-      <c r="X48" s="106"/>
+      <c r="X48" s="104"/>
       <c r="Y48" s="97"/>
-      <c r="Z48" s="106"/>
+      <c r="Z48" s="104"/>
       <c r="AA48" s="97"/>
-      <c r="AB48" s="106"/>
+      <c r="AB48" s="104"/>
       <c r="AC48" s="97"/>
-      <c r="AD48" s="106"/>
+      <c r="AD48" s="104"/>
       <c r="AE48" s="97"/>
-      <c r="AF48" s="106"/>
+      <c r="AF48" s="104"/>
       <c r="AG48" s="97"/>
-      <c r="AH48" s="106"/>
+      <c r="AH48" s="104"/>
     </row>
     <row r="49" spans="1:34" ht="33.75" customHeight="1">
       <c r="A49" s="50">
@@ -4472,8 +5248,14 @@
       <c r="B50" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="C50" s="91"/>
-      <c r="D50" s="92"/>
+      <c r="C50" s="91">
+        <f>SUM(C51)</f>
+        <v>0</v>
+      </c>
+      <c r="D50" s="92">
+        <f>SUM(D51)</f>
+        <v>0</v>
+      </c>
       <c r="E50" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -4490,16 +5272,46 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I50" s="91"/>
-      <c r="J50" s="92"/>
-      <c r="K50" s="91"/>
-      <c r="L50" s="92"/>
-      <c r="M50" s="91"/>
-      <c r="N50" s="92"/>
-      <c r="O50" s="91"/>
-      <c r="P50" s="92"/>
-      <c r="Q50" s="91"/>
-      <c r="R50" s="92"/>
+      <c r="I50" s="91">
+        <f>SUM(I51)</f>
+        <v>0</v>
+      </c>
+      <c r="J50" s="92">
+        <f>SUM(J51)</f>
+        <v>0</v>
+      </c>
+      <c r="K50" s="91">
+        <f>SUM(K51)</f>
+        <v>0</v>
+      </c>
+      <c r="L50" s="92">
+        <f>SUM(L51)</f>
+        <v>0</v>
+      </c>
+      <c r="M50" s="91">
+        <f>SUM(M51)</f>
+        <v>0</v>
+      </c>
+      <c r="N50" s="92">
+        <f>SUM(N51)</f>
+        <v>0</v>
+      </c>
+      <c r="O50" s="91">
+        <f>SUM(O51)</f>
+        <v>0</v>
+      </c>
+      <c r="P50" s="92">
+        <f>SUM(P51)</f>
+        <v>0</v>
+      </c>
+      <c r="Q50" s="91">
+        <f>SUM(Q51)</f>
+        <v>0</v>
+      </c>
+      <c r="R50" s="92">
+        <f>SUM(R51)</f>
+        <v>0</v>
+      </c>
       <c r="S50" s="40">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4508,20 +5320,62 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U50" s="91"/>
-      <c r="V50" s="92"/>
-      <c r="W50" s="91"/>
-      <c r="X50" s="92"/>
-      <c r="Y50" s="91"/>
-      <c r="Z50" s="92"/>
-      <c r="AA50" s="91"/>
-      <c r="AB50" s="92"/>
-      <c r="AC50" s="91"/>
-      <c r="AD50" s="92"/>
-      <c r="AE50" s="91"/>
-      <c r="AF50" s="92"/>
-      <c r="AG50" s="91"/>
-      <c r="AH50" s="92"/>
+      <c r="U50" s="91">
+        <f>SUM(U51)</f>
+        <v>0</v>
+      </c>
+      <c r="V50" s="92">
+        <f>SUM(V51)</f>
+        <v>0</v>
+      </c>
+      <c r="W50" s="91">
+        <f>SUM(W51)</f>
+        <v>0</v>
+      </c>
+      <c r="X50" s="92">
+        <f>SUM(X51)</f>
+        <v>0</v>
+      </c>
+      <c r="Y50" s="91">
+        <f>SUM(Y51)</f>
+        <v>0</v>
+      </c>
+      <c r="Z50" s="92">
+        <f>SUM(Z51)</f>
+        <v>0</v>
+      </c>
+      <c r="AA50" s="91">
+        <f>SUM(AA51)</f>
+        <v>0</v>
+      </c>
+      <c r="AB50" s="92">
+        <f>SUM(AB51)</f>
+        <v>0</v>
+      </c>
+      <c r="AC50" s="91">
+        <f>SUM(AC51)</f>
+        <v>0</v>
+      </c>
+      <c r="AD50" s="92">
+        <f>SUM(AD51)</f>
+        <v>0</v>
+      </c>
+      <c r="AE50" s="91">
+        <f>SUM(AE51)</f>
+        <v>0</v>
+      </c>
+      <c r="AF50" s="92">
+        <f>SUM(AF51)</f>
+        <v>0</v>
+      </c>
+      <c r="AG50" s="91">
+        <f>SUM(AG51)</f>
+        <v>0</v>
+      </c>
+      <c r="AH50" s="92">
+        <f>SUM(AH51)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="51" spans="1:34" ht="75">
       <c r="A51" s="50">
@@ -4878,8 +5732,14 @@
       <c r="B57" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="C57" s="99"/>
-      <c r="D57" s="92"/>
+      <c r="C57" s="99">
+        <f>SUM(C58:C63)</f>
+        <v>0</v>
+      </c>
+      <c r="D57" s="139">
+        <f>SUM(D58:D63)</f>
+        <v>0</v>
+      </c>
       <c r="E57" s="4">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -4896,16 +5756,46 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I57" s="91"/>
-      <c r="J57" s="92"/>
-      <c r="K57" s="91"/>
-      <c r="L57" s="92"/>
-      <c r="M57" s="91"/>
-      <c r="N57" s="92"/>
-      <c r="O57" s="91"/>
-      <c r="P57" s="92"/>
-      <c r="Q57" s="91"/>
-      <c r="R57" s="92"/>
+      <c r="I57" s="99">
+        <f>SUM(I58:I63)</f>
+        <v>0</v>
+      </c>
+      <c r="J57" s="139">
+        <f>SUM(J58:J63)</f>
+        <v>0</v>
+      </c>
+      <c r="K57" s="99">
+        <f>SUM(K58:K63)</f>
+        <v>0</v>
+      </c>
+      <c r="L57" s="139">
+        <f>SUM(L58:L63)</f>
+        <v>0</v>
+      </c>
+      <c r="M57" s="99">
+        <f>SUM(M58:M63)</f>
+        <v>0</v>
+      </c>
+      <c r="N57" s="139">
+        <f>SUM(N58:N63)</f>
+        <v>0</v>
+      </c>
+      <c r="O57" s="99">
+        <f>SUM(O58:O63)</f>
+        <v>0</v>
+      </c>
+      <c r="P57" s="139">
+        <f>SUM(P58:P63)</f>
+        <v>0</v>
+      </c>
+      <c r="Q57" s="99">
+        <f>SUM(Q58:Q63)</f>
+        <v>0</v>
+      </c>
+      <c r="R57" s="139">
+        <f>SUM(R58:R63)</f>
+        <v>0</v>
+      </c>
       <c r="S57" s="27">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -4914,20 +5804,62 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U57" s="91"/>
-      <c r="V57" s="92"/>
-      <c r="W57" s="91"/>
-      <c r="X57" s="92"/>
-      <c r="Y57" s="91"/>
-      <c r="Z57" s="92"/>
-      <c r="AA57" s="91"/>
-      <c r="AB57" s="92"/>
-      <c r="AC57" s="91"/>
-      <c r="AD57" s="92"/>
-      <c r="AE57" s="91"/>
-      <c r="AF57" s="92"/>
-      <c r="AG57" s="91"/>
-      <c r="AH57" s="92"/>
+      <c r="U57" s="99">
+        <f>SUM(U58:U63)</f>
+        <v>0</v>
+      </c>
+      <c r="V57" s="139">
+        <f>SUM(V58:V63)</f>
+        <v>0</v>
+      </c>
+      <c r="W57" s="99">
+        <f>SUM(W58:W63)</f>
+        <v>0</v>
+      </c>
+      <c r="X57" s="139">
+        <f>SUM(X58:X63)</f>
+        <v>0</v>
+      </c>
+      <c r="Y57" s="99">
+        <f>SUM(Y58:Y63)</f>
+        <v>0</v>
+      </c>
+      <c r="Z57" s="139">
+        <f>SUM(Z58:Z63)</f>
+        <v>0</v>
+      </c>
+      <c r="AA57" s="99">
+        <f>SUM(AA58:AA63)</f>
+        <v>0</v>
+      </c>
+      <c r="AB57" s="139">
+        <f>SUM(AB58:AB63)</f>
+        <v>0</v>
+      </c>
+      <c r="AC57" s="99">
+        <f>SUM(AC58:AC63)</f>
+        <v>0</v>
+      </c>
+      <c r="AD57" s="139">
+        <f>SUM(AD58:AD63)</f>
+        <v>0</v>
+      </c>
+      <c r="AE57" s="99">
+        <f>SUM(AE58:AE63)</f>
+        <v>0</v>
+      </c>
+      <c r="AF57" s="139">
+        <f>SUM(AF58:AF63)</f>
+        <v>0</v>
+      </c>
+      <c r="AG57" s="99">
+        <f>SUM(AG58:AG63)</f>
+        <v>0</v>
+      </c>
+      <c r="AH57" s="139">
+        <f>SUM(AH58:AH63)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="58" spans="1:34" ht="120.75" customHeight="1">
       <c r="A58" s="58">
@@ -5534,8 +6466,14 @@
       <c r="B67" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="C67" s="37"/>
-      <c r="D67" s="38"/>
+      <c r="C67" s="37">
+        <f>SUM(C68:C71)</f>
+        <v>0</v>
+      </c>
+      <c r="D67" s="38">
+        <f>SUM(D68:D71)</f>
+        <v>0</v>
+      </c>
       <c r="E67" s="37">
         <f t="shared" ref="E67:AH67" si="11">SUM(E68:E71)</f>
         <v>0</v>
@@ -5890,84 +6828,113 @@
       <c r="AH71" s="90"/>
     </row>
     <row r="72" spans="1:34" ht="63" customHeight="1">
-      <c r="A72" s="117" t="s">
+      <c r="A72" s="122" t="s">
         <v>103</v>
       </c>
-      <c r="B72" s="118"/>
-      <c r="C72" s="118"/>
-      <c r="D72" s="118"/>
-      <c r="E72" s="118"/>
-      <c r="F72" s="118"/>
-      <c r="G72" s="118"/>
-      <c r="H72" s="118"/>
-      <c r="I72" s="118"/>
-      <c r="J72" s="118"/>
-      <c r="K72" s="118"/>
-      <c r="L72" s="118"/>
-      <c r="M72" s="118"/>
-      <c r="N72" s="118"/>
-      <c r="O72" s="118"/>
-      <c r="P72" s="118"/>
-      <c r="Q72" s="118"/>
-      <c r="R72" s="118"/>
-      <c r="S72" s="118"/>
-      <c r="T72" s="118"/>
-      <c r="U72" s="118"/>
-      <c r="V72" s="118"/>
-      <c r="W72" s="118"/>
-      <c r="X72" s="118"/>
-      <c r="Y72" s="118"/>
-      <c r="Z72" s="118"/>
-      <c r="AA72" s="118"/>
-      <c r="AB72" s="118"/>
-      <c r="AC72" s="118"/>
-      <c r="AD72" s="118"/>
-      <c r="AE72" s="118"/>
-      <c r="AF72" s="118"/>
-      <c r="AG72" s="118"/>
-      <c r="AH72" s="118"/>
+      <c r="B72" s="123"/>
+      <c r="C72" s="123"/>
+      <c r="D72" s="123"/>
+      <c r="E72" s="123"/>
+      <c r="F72" s="123"/>
+      <c r="G72" s="123"/>
+      <c r="H72" s="123"/>
+      <c r="I72" s="123"/>
+      <c r="J72" s="123"/>
+      <c r="K72" s="123"/>
+      <c r="L72" s="123"/>
+      <c r="M72" s="123"/>
+      <c r="N72" s="123"/>
+      <c r="O72" s="123"/>
+      <c r="P72" s="123"/>
+      <c r="Q72" s="123"/>
+      <c r="R72" s="123"/>
+      <c r="S72" s="123"/>
+      <c r="T72" s="123"/>
+      <c r="U72" s="123"/>
+      <c r="V72" s="123"/>
+      <c r="W72" s="123"/>
+      <c r="X72" s="123"/>
+      <c r="Y72" s="123"/>
+      <c r="Z72" s="123"/>
+      <c r="AA72" s="123"/>
+      <c r="AB72" s="123"/>
+      <c r="AC72" s="123"/>
+      <c r="AD72" s="123"/>
+      <c r="AE72" s="123"/>
+      <c r="AF72" s="123"/>
+      <c r="AG72" s="123"/>
+      <c r="AH72" s="123"/>
     </row>
     <row r="73" spans="1:34" ht="50.45" customHeight="1">
-      <c r="A73" s="117" t="s">
+      <c r="A73" s="122" t="s">
         <v>81</v>
       </c>
-      <c r="B73" s="118"/>
-      <c r="C73" s="118"/>
-      <c r="D73" s="118"/>
-      <c r="E73" s="118"/>
-      <c r="F73" s="118"/>
-      <c r="G73" s="118"/>
-      <c r="H73" s="118"/>
-      <c r="I73" s="118"/>
-      <c r="J73" s="118"/>
-      <c r="K73" s="118"/>
-      <c r="L73" s="118"/>
-      <c r="M73" s="118"/>
-      <c r="N73" s="118"/>
-      <c r="O73" s="118"/>
-      <c r="P73" s="118"/>
-      <c r="Q73" s="118"/>
-      <c r="R73" s="118"/>
-      <c r="S73" s="118"/>
-      <c r="T73" s="118"/>
-      <c r="U73" s="118"/>
-      <c r="V73" s="118"/>
-      <c r="W73" s="118"/>
-      <c r="X73" s="118"/>
-      <c r="Y73" s="118"/>
-      <c r="Z73" s="118"/>
-      <c r="AA73" s="118"/>
-      <c r="AB73" s="118"/>
-      <c r="AC73" s="118"/>
-      <c r="AD73" s="118"/>
-      <c r="AE73" s="118"/>
-      <c r="AF73" s="118"/>
-      <c r="AG73" s="118"/>
-      <c r="AH73" s="118"/>
+      <c r="B73" s="123"/>
+      <c r="C73" s="123"/>
+      <c r="D73" s="123"/>
+      <c r="E73" s="123"/>
+      <c r="F73" s="123"/>
+      <c r="G73" s="123"/>
+      <c r="H73" s="123"/>
+      <c r="I73" s="123"/>
+      <c r="J73" s="123"/>
+      <c r="K73" s="123"/>
+      <c r="L73" s="123"/>
+      <c r="M73" s="123"/>
+      <c r="N73" s="123"/>
+      <c r="O73" s="123"/>
+      <c r="P73" s="123"/>
+      <c r="Q73" s="123"/>
+      <c r="R73" s="123"/>
+      <c r="S73" s="123"/>
+      <c r="T73" s="123"/>
+      <c r="U73" s="123"/>
+      <c r="V73" s="123"/>
+      <c r="W73" s="123"/>
+      <c r="X73" s="123"/>
+      <c r="Y73" s="123"/>
+      <c r="Z73" s="123"/>
+      <c r="AA73" s="123"/>
+      <c r="AB73" s="123"/>
+      <c r="AC73" s="123"/>
+      <c r="AD73" s="123"/>
+      <c r="AE73" s="123"/>
+      <c r="AF73" s="123"/>
+      <c r="AG73" s="123"/>
+      <c r="AH73" s="123"/>
     </row>
   </sheetData>
   <sheetProtection password="CB52" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="45">
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="I8:U8"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="Y11:Z11"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="S10:AD10"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="G10:R10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="A73:AH73"/>
+    <mergeCell ref="A72:AH72"/>
+    <mergeCell ref="AE10:AF11"/>
+    <mergeCell ref="AG10:AH11"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="Z4:AC4"/>
+    <mergeCell ref="I5:U5"/>
+    <mergeCell ref="I2:U2"/>
+    <mergeCell ref="Z2:AC2"/>
+    <mergeCell ref="I3:U3"/>
+    <mergeCell ref="Z3:AD3"/>
+    <mergeCell ref="Z5:AC5"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:H3"/>
@@ -5984,35 +6951,6 @@
     <mergeCell ref="I1:U1"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="B10:B12"/>
-    <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="Z4:AC4"/>
-    <mergeCell ref="I5:U5"/>
-    <mergeCell ref="I2:U2"/>
-    <mergeCell ref="Z2:AC2"/>
-    <mergeCell ref="I3:U3"/>
-    <mergeCell ref="Z3:AD3"/>
-    <mergeCell ref="Z5:AC5"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="E10:F11"/>
-    <mergeCell ref="G10:R10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="A73:AH73"/>
-    <mergeCell ref="A72:AH72"/>
-    <mergeCell ref="AE10:AF11"/>
-    <mergeCell ref="AG10:AH11"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="I8:U8"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="S10:AD10"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B54" r:id="rId1" location="dst100375" display="http://www.consultant.ru/document/cons_doc_LAW_300850/9f5fbd89acd2e5dede9805ccc99176d3915a449d/ - dst100375"/>

--- a/Svr.Web/wwwroot/Templates/0901.xlsx
+++ b/Svr.Web/wwwroot/Templates/0901.xlsx
@@ -157,9 +157,6 @@
     <t xml:space="preserve">О взыскании недоимки по страховым взносам, пеней и штрафов с физического лица, утратившего статус индивидуального предпринимателя </t>
   </si>
   <si>
-    <t>5.1.</t>
-  </si>
-  <si>
     <t>Индивидуальные сведения и иная информация, из них:</t>
   </si>
   <si>
@@ -361,6 +358,9 @@
   </si>
   <si>
     <t>Взыскание средств пенсионных накоплений в порядке регресса с правопреемников, которым выплачены средства пенсионных накоплений (п. 31 Правил, утвержденных постановлением                                                                        Правительства Российской Федерации                                                                                     от 30  июля 2014 г. № 711)</t>
+  </si>
+  <si>
+    <t>5.1</t>
   </si>
 </sst>
 </file>
@@ -1051,6 +1051,104 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -1059,9 +1157,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1070,107 +1165,12 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="21">
@@ -1496,8 +1496,8 @@
   </sheetPr>
   <dimension ref="A1:AH73"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A55" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1540,41 +1540,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="18.75">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="134" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="112" t="s">
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="131" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="112"/>
-      <c r="P1" s="112"/>
-      <c r="Q1" s="112"/>
-      <c r="R1" s="112"/>
-      <c r="S1" s="112"/>
-      <c r="T1" s="112"/>
-      <c r="U1" s="112"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="131"/>
+      <c r="O1" s="131"/>
+      <c r="P1" s="131"/>
+      <c r="Q1" s="131"/>
+      <c r="R1" s="131"/>
+      <c r="S1" s="131"/>
+      <c r="T1" s="131"/>
+      <c r="U1" s="131"/>
       <c r="V1" s="68"/>
       <c r="W1" s="69"/>
       <c r="X1" s="68"/>
       <c r="Y1" s="69"/>
-      <c r="Z1" s="115" t="s">
+      <c r="Z1" s="128" t="s">
         <v>35</v>
       </c>
-      <c r="AA1" s="115"/>
-      <c r="AB1" s="115"/>
-      <c r="AC1" s="115"/>
+      <c r="AA1" s="128"/>
+      <c r="AB1" s="128"/>
+      <c r="AC1" s="128"/>
       <c r="AD1" s="70"/>
       <c r="AE1" s="71"/>
       <c r="AF1" s="72"/>
@@ -1582,41 +1582,41 @@
       <c r="AH1" s="74"/>
     </row>
     <row r="2" spans="1:34" ht="22.5" customHeight="1">
-      <c r="A2" s="106" t="s">
-        <v>106</v>
-      </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="112" t="s">
-        <v>101</v>
-      </c>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="112"/>
-      <c r="Q2" s="112"/>
-      <c r="R2" s="112"/>
-      <c r="S2" s="112"/>
-      <c r="T2" s="112"/>
-      <c r="U2" s="112"/>
+      <c r="A2" s="135" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="135"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="131" t="s">
+        <v>100</v>
+      </c>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="131"/>
+      <c r="O2" s="131"/>
+      <c r="P2" s="131"/>
+      <c r="Q2" s="131"/>
+      <c r="R2" s="131"/>
+      <c r="S2" s="131"/>
+      <c r="T2" s="131"/>
+      <c r="U2" s="131"/>
       <c r="V2" s="68"/>
       <c r="W2" s="69"/>
       <c r="X2" s="68"/>
       <c r="Y2" s="75"/>
-      <c r="Z2" s="116" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA2" s="116"/>
-      <c r="AB2" s="116"/>
-      <c r="AC2" s="116"/>
+      <c r="Z2" s="129" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA2" s="129"/>
+      <c r="AB2" s="129"/>
+      <c r="AC2" s="129"/>
       <c r="AD2" s="76"/>
       <c r="AE2" s="77"/>
       <c r="AF2" s="78"/>
@@ -1624,42 +1624,42 @@
       <c r="AH2" s="74"/>
     </row>
     <row r="3" spans="1:34" ht="18.75">
-      <c r="A3" s="106" t="s">
-        <v>105</v>
-      </c>
-      <c r="B3" s="106"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="110" t="s">
+      <c r="A3" s="135" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="135"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
+      <c r="H3" s="135"/>
+      <c r="I3" s="132" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="110"/>
-      <c r="K3" s="110"/>
-      <c r="L3" s="110"/>
-      <c r="M3" s="110"/>
-      <c r="N3" s="110"/>
-      <c r="O3" s="110"/>
-      <c r="P3" s="110"/>
-      <c r="Q3" s="110"/>
-      <c r="R3" s="110"/>
-      <c r="S3" s="110"/>
-      <c r="T3" s="110"/>
-      <c r="U3" s="110"/>
+      <c r="J3" s="132"/>
+      <c r="K3" s="132"/>
+      <c r="L3" s="132"/>
+      <c r="M3" s="132"/>
+      <c r="N3" s="132"/>
+      <c r="O3" s="132"/>
+      <c r="P3" s="132"/>
+      <c r="Q3" s="132"/>
+      <c r="R3" s="132"/>
+      <c r="S3" s="132"/>
+      <c r="T3" s="132"/>
+      <c r="U3" s="132"/>
       <c r="V3" s="78"/>
       <c r="W3" s="80"/>
       <c r="X3" s="78"/>
       <c r="Y3" s="80"/>
-      <c r="Z3" s="116" t="s">
+      <c r="Z3" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="AA3" s="116"/>
-      <c r="AB3" s="116"/>
-      <c r="AC3" s="116"/>
-      <c r="AD3" s="118"/>
+      <c r="AA3" s="129"/>
+      <c r="AB3" s="129"/>
+      <c r="AC3" s="129"/>
+      <c r="AD3" s="133"/>
       <c r="AE3" s="75"/>
       <c r="AF3" s="76" t="s">
         <v>33</v>
@@ -1668,39 +1668,39 @@
       <c r="AH3" s="74"/>
     </row>
     <row r="4" spans="1:34" ht="18.75">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="135" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="106"/>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="110"/>
-      <c r="J4" s="110"/>
-      <c r="K4" s="110"/>
-      <c r="L4" s="110"/>
-      <c r="M4" s="110"/>
-      <c r="N4" s="110"/>
-      <c r="O4" s="110"/>
-      <c r="P4" s="110"/>
-      <c r="Q4" s="110"/>
-      <c r="R4" s="110"/>
-      <c r="S4" s="110"/>
-      <c r="T4" s="110"/>
-      <c r="U4" s="110"/>
+      <c r="B4" s="135"/>
+      <c r="C4" s="135"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="135"/>
+      <c r="F4" s="135"/>
+      <c r="G4" s="135"/>
+      <c r="H4" s="135"/>
+      <c r="I4" s="132"/>
+      <c r="J4" s="132"/>
+      <c r="K4" s="132"/>
+      <c r="L4" s="132"/>
+      <c r="M4" s="132"/>
+      <c r="N4" s="132"/>
+      <c r="O4" s="132"/>
+      <c r="P4" s="132"/>
+      <c r="Q4" s="132"/>
+      <c r="R4" s="132"/>
+      <c r="S4" s="132"/>
+      <c r="T4" s="132"/>
+      <c r="U4" s="132"/>
       <c r="V4" s="78"/>
       <c r="W4" s="75"/>
       <c r="X4" s="82"/>
       <c r="Y4" s="75"/>
-      <c r="Z4" s="116" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA4" s="116"/>
-      <c r="AB4" s="116"/>
-      <c r="AC4" s="116"/>
+      <c r="Z4" s="129" t="s">
+        <v>83</v>
+      </c>
+      <c r="AA4" s="129"/>
+      <c r="AB4" s="129"/>
+      <c r="AC4" s="129"/>
       <c r="AD4" s="76"/>
       <c r="AE4" s="77"/>
       <c r="AF4" s="76"/>
@@ -1708,37 +1708,37 @@
       <c r="AH4" s="74"/>
     </row>
     <row r="5" spans="1:34" ht="18.75">
-      <c r="A5" s="106"/>
-      <c r="B5" s="106"/>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="106"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="117" t="s">
-        <v>82</v>
-      </c>
-      <c r="J5" s="117"/>
-      <c r="K5" s="117"/>
-      <c r="L5" s="117"/>
-      <c r="M5" s="117"/>
-      <c r="N5" s="117"/>
-      <c r="O5" s="117"/>
-      <c r="P5" s="117"/>
-      <c r="Q5" s="117"/>
-      <c r="R5" s="117"/>
-      <c r="S5" s="117"/>
-      <c r="T5" s="117"/>
-      <c r="U5" s="117"/>
+      <c r="A5" s="135"/>
+      <c r="B5" s="135"/>
+      <c r="C5" s="135"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="135"/>
+      <c r="G5" s="135"/>
+      <c r="H5" s="135"/>
+      <c r="I5" s="130" t="s">
+        <v>81</v>
+      </c>
+      <c r="J5" s="130"/>
+      <c r="K5" s="130"/>
+      <c r="L5" s="130"/>
+      <c r="M5" s="130"/>
+      <c r="N5" s="130"/>
+      <c r="O5" s="130"/>
+      <c r="P5" s="130"/>
+      <c r="Q5" s="130"/>
+      <c r="R5" s="130"/>
+      <c r="S5" s="130"/>
+      <c r="T5" s="130"/>
+      <c r="U5" s="130"/>
       <c r="V5" s="78"/>
       <c r="W5" s="75"/>
       <c r="X5" s="82"/>
       <c r="Y5" s="75"/>
-      <c r="Z5" s="116"/>
-      <c r="AA5" s="116"/>
-      <c r="AB5" s="116"/>
-      <c r="AC5" s="116"/>
+      <c r="Z5" s="129"/>
+      <c r="AA5" s="129"/>
+      <c r="AB5" s="129"/>
+      <c r="AC5" s="129"/>
       <c r="AD5" s="76"/>
       <c r="AE5" s="77"/>
       <c r="AF5" s="76"/>
@@ -1746,33 +1746,33 @@
       <c r="AH5" s="74"/>
     </row>
     <row r="6" spans="1:34" ht="18.75">
-      <c r="A6" s="106"/>
-      <c r="B6" s="106"/>
-      <c r="C6" s="106"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="106"/>
-      <c r="G6" s="106"/>
-      <c r="H6" s="106"/>
-      <c r="I6" s="110"/>
-      <c r="J6" s="110"/>
-      <c r="K6" s="110"/>
-      <c r="L6" s="110"/>
-      <c r="M6" s="110"/>
-      <c r="N6" s="110"/>
-      <c r="O6" s="110"/>
-      <c r="P6" s="110"/>
-      <c r="Q6" s="110"/>
-      <c r="R6" s="110"/>
-      <c r="S6" s="110"/>
-      <c r="T6" s="110"/>
-      <c r="U6" s="110"/>
+      <c r="A6" s="135"/>
+      <c r="B6" s="135"/>
+      <c r="C6" s="135"/>
+      <c r="D6" s="135"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="135"/>
+      <c r="G6" s="135"/>
+      <c r="H6" s="135"/>
+      <c r="I6" s="132"/>
+      <c r="J6" s="132"/>
+      <c r="K6" s="132"/>
+      <c r="L6" s="132"/>
+      <c r="M6" s="132"/>
+      <c r="N6" s="132"/>
+      <c r="O6" s="132"/>
+      <c r="P6" s="132"/>
+      <c r="Q6" s="132"/>
+      <c r="R6" s="132"/>
+      <c r="S6" s="132"/>
+      <c r="T6" s="132"/>
+      <c r="U6" s="132"/>
       <c r="V6" s="78"/>
       <c r="W6" s="75"/>
       <c r="X6" s="82"/>
       <c r="Y6" s="75"/>
       <c r="Z6" s="83" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AA6" s="80"/>
       <c r="AB6" s="78"/>
@@ -1784,29 +1784,29 @@
       <c r="AH6" s="74"/>
     </row>
     <row r="7" spans="1:34" ht="18.75">
-      <c r="A7" s="106"/>
-      <c r="B7" s="106"/>
-      <c r="C7" s="106"/>
-      <c r="D7" s="106"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="106"/>
-      <c r="H7" s="106"/>
-      <c r="I7" s="110" t="s">
+      <c r="A7" s="135"/>
+      <c r="B7" s="135"/>
+      <c r="C7" s="135"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="135"/>
+      <c r="G7" s="135"/>
+      <c r="H7" s="135"/>
+      <c r="I7" s="132" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="110"/>
-      <c r="K7" s="110"/>
-      <c r="L7" s="110"/>
-      <c r="M7" s="110"/>
-      <c r="N7" s="110"/>
-      <c r="O7" s="110"/>
-      <c r="P7" s="110"/>
-      <c r="Q7" s="110"/>
-      <c r="R7" s="110"/>
-      <c r="S7" s="110"/>
-      <c r="T7" s="110"/>
-      <c r="U7" s="110"/>
+      <c r="J7" s="132"/>
+      <c r="K7" s="132"/>
+      <c r="L7" s="132"/>
+      <c r="M7" s="132"/>
+      <c r="N7" s="132"/>
+      <c r="O7" s="132"/>
+      <c r="P7" s="132"/>
+      <c r="Q7" s="132"/>
+      <c r="R7" s="132"/>
+      <c r="S7" s="132"/>
+      <c r="T7" s="132"/>
+      <c r="U7" s="132"/>
       <c r="V7" s="78"/>
       <c r="W7" s="75"/>
       <c r="X7" s="82"/>
@@ -1822,29 +1822,29 @@
       <c r="AH7" s="74"/>
     </row>
     <row r="8" spans="1:34" ht="18.75">
-      <c r="A8" s="108"/>
-      <c r="B8" s="108"/>
-      <c r="C8" s="108"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="108"/>
-      <c r="F8" s="108"/>
-      <c r="G8" s="108"/>
-      <c r="H8" s="108"/>
-      <c r="I8" s="135" t="s">
-        <v>104</v>
-      </c>
-      <c r="J8" s="135"/>
-      <c r="K8" s="135"/>
-      <c r="L8" s="135"/>
-      <c r="M8" s="135"/>
-      <c r="N8" s="135"/>
-      <c r="O8" s="135"/>
-      <c r="P8" s="135"/>
-      <c r="Q8" s="135"/>
-      <c r="R8" s="135"/>
-      <c r="S8" s="135"/>
-      <c r="T8" s="135"/>
-      <c r="U8" s="135"/>
+      <c r="A8" s="136"/>
+      <c r="B8" s="136"/>
+      <c r="C8" s="136"/>
+      <c r="D8" s="136"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="136"/>
+      <c r="G8" s="136"/>
+      <c r="H8" s="136"/>
+      <c r="I8" s="107" t="s">
+        <v>103</v>
+      </c>
+      <c r="J8" s="107"/>
+      <c r="K8" s="107"/>
+      <c r="L8" s="107"/>
+      <c r="M8" s="107"/>
+      <c r="N8" s="107"/>
+      <c r="O8" s="107"/>
+      <c r="P8" s="107"/>
+      <c r="Q8" s="107"/>
+      <c r="R8" s="107"/>
+      <c r="S8" s="107"/>
+      <c r="T8" s="107"/>
+      <c r="U8" s="107"/>
       <c r="V8" s="68"/>
       <c r="W8" s="75"/>
       <c r="X8" s="82"/>
@@ -1860,27 +1860,27 @@
       <c r="AH8" s="74"/>
     </row>
     <row r="9" spans="1:34" ht="30.75" customHeight="1">
-      <c r="A9" s="109"/>
-      <c r="B9" s="109"/>
-      <c r="C9" s="109"/>
-      <c r="D9" s="109"/>
-      <c r="E9" s="109"/>
-      <c r="F9" s="109"/>
-      <c r="G9" s="109"/>
-      <c r="H9" s="109"/>
-      <c r="I9" s="111"/>
-      <c r="J9" s="111"/>
-      <c r="K9" s="111"/>
-      <c r="L9" s="111"/>
-      <c r="M9" s="111"/>
-      <c r="N9" s="111"/>
-      <c r="O9" s="111"/>
-      <c r="P9" s="111"/>
-      <c r="Q9" s="111"/>
-      <c r="R9" s="111"/>
-      <c r="S9" s="111"/>
-      <c r="T9" s="111"/>
-      <c r="U9" s="111"/>
+      <c r="A9" s="137"/>
+      <c r="B9" s="137"/>
+      <c r="C9" s="137"/>
+      <c r="D9" s="137"/>
+      <c r="E9" s="137"/>
+      <c r="F9" s="137"/>
+      <c r="G9" s="137"/>
+      <c r="H9" s="137"/>
+      <c r="I9" s="138"/>
+      <c r="J9" s="138"/>
+      <c r="K9" s="138"/>
+      <c r="L9" s="138"/>
+      <c r="M9" s="138"/>
+      <c r="N9" s="138"/>
+      <c r="O9" s="138"/>
+      <c r="P9" s="138"/>
+      <c r="Q9" s="138"/>
+      <c r="R9" s="138"/>
+      <c r="S9" s="138"/>
+      <c r="T9" s="138"/>
+      <c r="U9" s="138"/>
       <c r="V9" s="68"/>
       <c r="W9" s="85"/>
       <c r="X9" s="86"/>
@@ -1892,126 +1892,126 @@
       <c r="AD9" s="76"/>
       <c r="AE9" s="77"/>
       <c r="AF9" s="76"/>
-      <c r="AG9" s="134" t="s">
+      <c r="AG9" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="AH9" s="134"/>
+      <c r="AH9" s="106"/>
     </row>
     <row r="10" spans="1:34" ht="27.75" customHeight="1">
-      <c r="A10" s="113" t="s">
+      <c r="A10" s="139" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="114" t="s">
+      <c r="B10" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="114" t="s">
+      <c r="C10" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="114"/>
-      <c r="E10" s="114" t="s">
+      <c r="D10" s="108"/>
+      <c r="E10" s="108" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="114"/>
-      <c r="G10" s="119" t="s">
+      <c r="F10" s="108"/>
+      <c r="G10" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="120"/>
-      <c r="I10" s="120"/>
-      <c r="J10" s="120"/>
-      <c r="K10" s="120"/>
-      <c r="L10" s="120"/>
-      <c r="M10" s="120"/>
-      <c r="N10" s="120"/>
-      <c r="O10" s="120"/>
-      <c r="P10" s="120"/>
-      <c r="Q10" s="120"/>
-      <c r="R10" s="121"/>
-      <c r="S10" s="119" t="s">
+      <c r="H10" s="112"/>
+      <c r="I10" s="112"/>
+      <c r="J10" s="112"/>
+      <c r="K10" s="112"/>
+      <c r="L10" s="112"/>
+      <c r="M10" s="112"/>
+      <c r="N10" s="112"/>
+      <c r="O10" s="112"/>
+      <c r="P10" s="112"/>
+      <c r="Q10" s="112"/>
+      <c r="R10" s="111"/>
+      <c r="S10" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="T10" s="120"/>
-      <c r="U10" s="120"/>
-      <c r="V10" s="120"/>
-      <c r="W10" s="120"/>
-      <c r="X10" s="120"/>
-      <c r="Y10" s="120"/>
-      <c r="Z10" s="120"/>
-      <c r="AA10" s="120"/>
-      <c r="AB10" s="120"/>
-      <c r="AC10" s="120"/>
-      <c r="AD10" s="121"/>
-      <c r="AE10" s="124" t="s">
+      <c r="T10" s="112"/>
+      <c r="U10" s="112"/>
+      <c r="V10" s="112"/>
+      <c r="W10" s="112"/>
+      <c r="X10" s="112"/>
+      <c r="Y10" s="112"/>
+      <c r="Z10" s="112"/>
+      <c r="AA10" s="112"/>
+      <c r="AB10" s="112"/>
+      <c r="AC10" s="112"/>
+      <c r="AD10" s="111"/>
+      <c r="AE10" s="118" t="s">
         <v>25</v>
       </c>
-      <c r="AF10" s="125"/>
-      <c r="AG10" s="128" t="s">
+      <c r="AF10" s="119"/>
+      <c r="AG10" s="122" t="s">
         <v>24</v>
       </c>
-      <c r="AH10" s="129"/>
+      <c r="AH10" s="123"/>
     </row>
     <row r="11" spans="1:34" ht="179.25" customHeight="1">
-      <c r="A11" s="113"/>
-      <c r="B11" s="114"/>
-      <c r="C11" s="114"/>
-      <c r="D11" s="114"/>
-      <c r="E11" s="114"/>
-      <c r="F11" s="114"/>
-      <c r="G11" s="107" t="s">
+      <c r="A11" s="139"/>
+      <c r="B11" s="108"/>
+      <c r="C11" s="108"/>
+      <c r="D11" s="108"/>
+      <c r="E11" s="108"/>
+      <c r="F11" s="108"/>
+      <c r="G11" s="115" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="107"/>
-      <c r="I11" s="107" t="s">
+      <c r="H11" s="115"/>
+      <c r="I11" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="107"/>
-      <c r="K11" s="114" t="s">
+      <c r="J11" s="115"/>
+      <c r="K11" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="L11" s="114"/>
-      <c r="M11" s="114" t="s">
-        <v>73</v>
-      </c>
-      <c r="N11" s="136"/>
-      <c r="O11" s="137" t="s">
+      <c r="L11" s="108"/>
+      <c r="M11" s="108" t="s">
+        <v>72</v>
+      </c>
+      <c r="N11" s="109"/>
+      <c r="O11" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="P11" s="138"/>
-      <c r="Q11" s="137" t="s">
+      <c r="P11" s="114"/>
+      <c r="Q11" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="R11" s="138"/>
-      <c r="S11" s="119" t="s">
+      <c r="R11" s="114"/>
+      <c r="S11" s="110" t="s">
         <v>23</v>
       </c>
-      <c r="T11" s="121"/>
-      <c r="U11" s="114" t="s">
+      <c r="T11" s="111"/>
+      <c r="U11" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="V11" s="114"/>
-      <c r="W11" s="114" t="s">
+      <c r="V11" s="108"/>
+      <c r="W11" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="X11" s="114"/>
-      <c r="Y11" s="114" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z11" s="136"/>
-      <c r="AA11" s="114" t="s">
+      <c r="X11" s="108"/>
+      <c r="Y11" s="108" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z11" s="109"/>
+      <c r="AA11" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="AB11" s="136"/>
-      <c r="AC11" s="132" t="s">
+      <c r="AB11" s="109"/>
+      <c r="AC11" s="126" t="s">
         <v>19</v>
       </c>
-      <c r="AD11" s="133"/>
-      <c r="AE11" s="126"/>
-      <c r="AF11" s="127"/>
-      <c r="AG11" s="130"/>
-      <c r="AH11" s="131"/>
+      <c r="AD11" s="127"/>
+      <c r="AE11" s="120"/>
+      <c r="AF11" s="121"/>
+      <c r="AG11" s="124"/>
+      <c r="AH11" s="125"/>
     </row>
     <row r="12" spans="1:34" ht="26.25" customHeight="1">
-      <c r="A12" s="113"/>
-      <c r="B12" s="114"/>
+      <c r="A12" s="139"/>
+      <c r="B12" s="108"/>
       <c r="C12" s="10" t="s">
         <v>17</v>
       </c>
@@ -2387,107 +2387,107 @@
         <v>0</v>
       </c>
       <c r="I15" s="87">
-        <f>SUM(I16)</f>
+        <f t="shared" ref="I15:R15" si="4">SUM(I16)</f>
         <v>0</v>
       </c>
       <c r="J15" s="88">
-        <f>SUM(J16)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K15" s="87">
-        <f>SUM(K16)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L15" s="88">
-        <f>SUM(L16)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M15" s="87">
-        <f>SUM(M16)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N15" s="88">
-        <f>SUM(N16)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O15" s="87">
-        <f>SUM(O16)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P15" s="88">
-        <f>SUM(P16)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q15" s="87">
-        <f>SUM(Q16)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R15" s="88">
-        <f>SUM(R16)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S15" s="27">
-        <f t="shared" ref="S15:S71" si="4">U15+W15+Y15+AA15+AC15</f>
+        <f t="shared" ref="S15:S71" si="5">U15+W15+Y15+AA15+AC15</f>
         <v>0</v>
       </c>
       <c r="T15" s="28">
-        <f t="shared" ref="T15:T71" si="5">V15+X15+Z15+AB15+AD15</f>
+        <f t="shared" ref="T15:T71" si="6">V15+X15+Z15+AB15+AD15</f>
         <v>0</v>
       </c>
       <c r="U15" s="87">
-        <f>SUM(U16)</f>
+        <f t="shared" ref="U15:AH15" si="7">SUM(U16)</f>
         <v>0</v>
       </c>
       <c r="V15" s="88">
-        <f>SUM(V16)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W15" s="87">
-        <f>SUM(W16)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X15" s="88">
-        <f>SUM(X16)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y15" s="87">
-        <f>SUM(Y16)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Z15" s="88">
-        <f>SUM(Z16)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AA15" s="87">
-        <f>SUM(AA16)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AB15" s="88">
-        <f>SUM(AB16)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AC15" s="87">
-        <f>SUM(AC16)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD15" s="88">
-        <f>SUM(AD16)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AE15" s="87">
-        <f>SUM(AE16)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AF15" s="88">
-        <f>SUM(AF16)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AG15" s="87">
-        <f>SUM(AG16)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AH15" s="88">
-        <f>SUM(AH16)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2501,7 +2501,7 @@
       <c r="C16" s="89"/>
       <c r="D16" s="90"/>
       <c r="E16" s="4">
-        <f t="shared" ref="E16:E71" si="6">G16+S16</f>
+        <f t="shared" ref="E16:E71" si="8">G16+S16</f>
         <v>0</v>
       </c>
       <c r="F16" s="3">
@@ -2527,11 +2527,11 @@
       <c r="Q16" s="93"/>
       <c r="R16" s="90"/>
       <c r="S16" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T16" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U16" s="93"/>
@@ -2554,7 +2554,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C17" s="91">
         <f>SUM(C18:C20)</f>
@@ -2565,7 +2565,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F17" s="3">
@@ -2581,107 +2581,107 @@
         <v>0</v>
       </c>
       <c r="I17" s="91">
-        <f>SUM(I18:I20)</f>
+        <f t="shared" ref="I17:R17" si="9">SUM(I18:I20)</f>
         <v>0</v>
       </c>
       <c r="J17" s="92">
-        <f>SUM(J18:J20)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K17" s="91">
-        <f>SUM(K18:K20)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L17" s="92">
-        <f>SUM(L18:L20)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M17" s="91">
-        <f>SUM(M18:M20)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N17" s="92">
-        <f>SUM(N18:N20)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O17" s="91">
-        <f>SUM(O18:O20)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P17" s="92">
-        <f>SUM(P18:P20)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q17" s="91">
-        <f>SUM(Q18:Q20)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R17" s="92">
-        <f>SUM(R18:R20)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S17" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T17" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U17" s="91">
-        <f>SUM(U18:U20)</f>
+        <f t="shared" ref="U17:AH17" si="10">SUM(U18:U20)</f>
         <v>0</v>
       </c>
       <c r="V17" s="92">
-        <f>SUM(V18:V20)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="W17" s="91">
-        <f>SUM(W18:W20)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="X17" s="92">
-        <f>SUM(X18:X20)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y17" s="91">
-        <f>SUM(Y18:Y20)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z17" s="92">
-        <f>SUM(Z18:Z20)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AA17" s="91">
-        <f>SUM(AA18:AA20)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AB17" s="92">
-        <f>SUM(AB18:AB20)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AC17" s="91">
-        <f>SUM(AC18:AC20)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AD17" s="92">
-        <f>SUM(AD18:AD20)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AE17" s="91">
-        <f>SUM(AE18:AE20)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AF17" s="92">
-        <f>SUM(AF18:AF20)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AG17" s="91">
-        <f>SUM(AG18:AG20)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AH17" s="92">
-        <f>SUM(AH18:AH20)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -2690,12 +2690,12 @@
         <v>14</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C18" s="93"/>
       <c r="D18" s="90"/>
       <c r="E18" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F18" s="3">
@@ -2721,11 +2721,11 @@
       <c r="Q18" s="93"/>
       <c r="R18" s="90"/>
       <c r="S18" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T18" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U18" s="93"/>
@@ -2748,12 +2748,12 @@
         <v>13</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C19" s="93"/>
       <c r="D19" s="90"/>
       <c r="E19" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F19" s="3">
@@ -2779,11 +2779,11 @@
       <c r="Q19" s="93"/>
       <c r="R19" s="90"/>
       <c r="S19" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T19" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U19" s="93"/>
@@ -2806,12 +2806,12 @@
         <v>43</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C20" s="93"/>
       <c r="D20" s="90"/>
       <c r="E20" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F20" s="3">
@@ -2837,11 +2837,11 @@
       <c r="Q20" s="93"/>
       <c r="R20" s="90"/>
       <c r="S20" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T20" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U20" s="93"/>
@@ -2864,7 +2864,7 @@
         <v>3</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C21" s="91">
         <f>SUM(C22)</f>
@@ -2875,7 +2875,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F21" s="3">
@@ -2891,107 +2891,107 @@
         <v>0</v>
       </c>
       <c r="I21" s="91">
-        <f>SUM(I22)</f>
+        <f t="shared" ref="I21:R21" si="11">SUM(I22)</f>
         <v>0</v>
       </c>
       <c r="J21" s="92">
-        <f>SUM(J22)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K21" s="91">
-        <f>SUM(K22)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L21" s="92">
-        <f>SUM(L22)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M21" s="91">
-        <f>SUM(M22)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N21" s="92">
-        <f>SUM(N22)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O21" s="91">
-        <f>SUM(O22)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P21" s="92">
-        <f>SUM(P22)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q21" s="91">
-        <f>SUM(Q22)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R21" s="92">
-        <f>SUM(R22)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S21" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T21" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U21" s="91">
-        <f>SUM(U22)</f>
+        <f t="shared" ref="U21:AH21" si="12">SUM(U22)</f>
         <v>0</v>
       </c>
       <c r="V21" s="92">
-        <f>SUM(V22)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W21" s="91">
-        <f>SUM(W22)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="X21" s="92">
-        <f>SUM(X22)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Y21" s="91">
-        <f>SUM(Y22)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z21" s="92">
-        <f>SUM(Z22)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AA21" s="91">
-        <f>SUM(AA22)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AB21" s="92">
-        <f>SUM(AB22)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AC21" s="91">
-        <f>SUM(AC22)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AD21" s="92">
-        <f>SUM(AD22)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE21" s="91">
-        <f>SUM(AE22)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AF21" s="92">
-        <f>SUM(AF22)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AG21" s="91">
-        <f>SUM(AG22)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AH21" s="92">
-        <f>SUM(AH22)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -3005,7 +3005,7 @@
       <c r="C22" s="93"/>
       <c r="D22" s="90"/>
       <c r="E22" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F22" s="3">
@@ -3031,11 +3031,11 @@
       <c r="Q22" s="93"/>
       <c r="R22" s="90"/>
       <c r="S22" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T22" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U22" s="93"/>
@@ -3069,7 +3069,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F23" s="3">
@@ -3085,107 +3085,107 @@
         <v>0</v>
       </c>
       <c r="I23" s="91">
-        <f>SUM(I24:I26)</f>
+        <f t="shared" ref="I23:R23" si="13">SUM(I24:I26)</f>
         <v>0</v>
       </c>
       <c r="J23" s="92">
-        <f>SUM(J24:J26)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K23" s="91">
-        <f>SUM(K24:K26)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L23" s="92">
-        <f>SUM(L24:L26)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M23" s="91">
-        <f>SUM(M24:M26)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N23" s="92">
-        <f>SUM(N24:N26)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O23" s="91">
-        <f>SUM(O24:O26)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P23" s="92">
-        <f>SUM(P24:P26)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Q23" s="91">
-        <f>SUM(Q24:Q26)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R23" s="92">
-        <f>SUM(R24:R26)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S23" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T23" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U23" s="91">
-        <f>SUM(U24:U26)</f>
+        <f t="shared" ref="U23:AH23" si="14">SUM(U24:U26)</f>
         <v>0</v>
       </c>
       <c r="V23" s="92">
-        <f>SUM(V24:V26)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W23" s="91">
-        <f>SUM(W24:W26)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="X23" s="92">
-        <f>SUM(X24:X26)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Y23" s="91">
-        <f>SUM(Y24:Y26)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Z23" s="92">
-        <f>SUM(Z24:Z26)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AA23" s="91">
-        <f>SUM(AA24:AA26)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AB23" s="92">
-        <f>SUM(AB24:AB26)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AC23" s="91">
-        <f>SUM(AC24:AC26)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD23" s="92">
-        <f>SUM(AD24:AD26)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AE23" s="91">
-        <f>SUM(AE24:AE26)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AF23" s="92">
-        <f>SUM(AF24:AF26)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AG23" s="91">
-        <f>SUM(AG24:AG26)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AH23" s="92">
-        <f>SUM(AH24:AH26)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -3194,12 +3194,12 @@
         <v>11</v>
       </c>
       <c r="B24" s="39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C24" s="93"/>
       <c r="D24" s="90"/>
       <c r="E24" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F24" s="3">
@@ -3225,11 +3225,11 @@
       <c r="Q24" s="93"/>
       <c r="R24" s="90"/>
       <c r="S24" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T24" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U24" s="93"/>
@@ -3257,7 +3257,7 @@
       <c r="C25" s="93"/>
       <c r="D25" s="90"/>
       <c r="E25" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F25" s="3">
@@ -3283,11 +3283,11 @@
       <c r="Q25" s="93"/>
       <c r="R25" s="90"/>
       <c r="S25" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T25" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U25" s="93"/>
@@ -3310,12 +3310,12 @@
         <v>9</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C26" s="93"/>
       <c r="D26" s="90"/>
       <c r="E26" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F26" s="3">
@@ -3341,11 +3341,11 @@
       <c r="Q26" s="93"/>
       <c r="R26" s="90"/>
       <c r="S26" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T26" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U26" s="93"/>
@@ -3377,7 +3377,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F27" s="3">
@@ -3393,107 +3393,107 @@
         <v>0</v>
       </c>
       <c r="I27" s="6">
-        <f t="shared" ref="I27:R27" si="7">I28+I30+I37+I40+I42+I43+I47+I50+I52+I53+I55+I56</f>
+        <f t="shared" ref="I27:R27" si="15">I28+I30+I37+I40+I42+I43+I47+I50+I52+I53+I55+I56</f>
         <v>0</v>
       </c>
       <c r="J27" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K27" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="L27" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M27" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N27" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O27" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P27" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Q27" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R27" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="S27" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T27" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U27" s="6">
-        <f t="shared" ref="U27:AH27" si="8">U28+U30+U37+U40+U42+U43+U47+U50+U52+U53+U55+U56</f>
+        <f t="shared" ref="U27:AH27" si="16">U28+U30+U37+U40+U42+U43+U47+U50+U52+U53+U55+U56</f>
         <v>0</v>
       </c>
       <c r="V27" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="W27" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="X27" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Y27" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Z27" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AA27" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AB27" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AC27" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AD27" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AE27" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AF27" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AG27" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AH27" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -3513,7 +3513,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F28" s="3">
@@ -3529,113 +3529,113 @@
         <v>0</v>
       </c>
       <c r="I28" s="91">
-        <f>SUM(I29)</f>
+        <f t="shared" ref="I28:R28" si="17">SUM(I29)</f>
         <v>0</v>
       </c>
       <c r="J28" s="92">
-        <f>SUM(J29)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="K28" s="91">
-        <f>SUM(K29)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L28" s="92">
-        <f>SUM(L29)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="M28" s="91">
-        <f>SUM(M29)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N28" s="92">
-        <f>SUM(N29)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="O28" s="91">
-        <f>SUM(O29)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P28" s="92">
-        <f>SUM(P29)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Q28" s="91">
-        <f>SUM(Q29)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R28" s="92">
-        <f>SUM(R29)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="S28" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T28" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U28" s="91">
-        <f>SUM(U29)</f>
+        <f t="shared" ref="U28:AH28" si="18">SUM(U29)</f>
         <v>0</v>
       </c>
       <c r="V28" s="92">
-        <f>SUM(V29)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="W28" s="91">
-        <f>SUM(W29)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="X28" s="92">
-        <f>SUM(X29)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Y28" s="91">
-        <f>SUM(Y29)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Z28" s="92">
-        <f>SUM(Z29)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AA28" s="91">
-        <f>SUM(AA29)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AB28" s="92">
-        <f>SUM(AB29)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AC28" s="91">
-        <f>SUM(AC29)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AD28" s="92">
-        <f>SUM(AD29)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AE28" s="91">
-        <f>SUM(AE29)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AF28" s="92">
-        <f>SUM(AF29)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AG28" s="91">
-        <f>SUM(AG29)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AH28" s="92">
-        <f>SUM(AH29)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:34" ht="71.25" customHeight="1">
       <c r="A29" s="31" t="s">
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="B29" s="32" t="s">
         <v>46</v>
@@ -3643,7 +3643,7 @@
       <c r="C29" s="93"/>
       <c r="D29" s="90"/>
       <c r="E29" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F29" s="3">
@@ -3669,11 +3669,11 @@
       <c r="Q29" s="93"/>
       <c r="R29" s="90"/>
       <c r="S29" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T29" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U29" s="93"/>
@@ -3696,7 +3696,7 @@
         <v>6</v>
       </c>
       <c r="B30" s="36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C30" s="91">
         <f>SUM(C31:C36)</f>
@@ -3707,7 +3707,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F30" s="3">
@@ -3723,121 +3723,121 @@
         <v>0</v>
       </c>
       <c r="I30" s="91">
-        <f>SUM(I31:I36)</f>
+        <f t="shared" ref="I30:R30" si="19">SUM(I31:I36)</f>
         <v>0</v>
       </c>
       <c r="J30" s="92">
-        <f>SUM(J31:J36)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K30" s="91">
-        <f>SUM(K31:K36)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="L30" s="92">
-        <f>SUM(L31:L36)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="M30" s="91">
-        <f>SUM(M31:M36)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="N30" s="92">
-        <f>SUM(N31:N36)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="O30" s="91">
-        <f>SUM(O31:O36)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="P30" s="92">
-        <f>SUM(P31:P36)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q30" s="91">
-        <f>SUM(Q31:Q36)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="R30" s="92">
-        <f>SUM(R31:R36)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="S30" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T30" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U30" s="91">
-        <f>SUM(U31:U36)</f>
+        <f t="shared" ref="U30:AH30" si="20">SUM(U31:U36)</f>
         <v>0</v>
       </c>
       <c r="V30" s="92">
-        <f>SUM(V31:V36)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="W30" s="91">
-        <f>SUM(W31:W36)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="X30" s="92">
-        <f>SUM(X31:X36)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Y30" s="91">
-        <f>SUM(Y31:Y36)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Z30" s="92">
-        <f>SUM(Z31:Z36)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AA30" s="91">
-        <f>SUM(AA31:AA36)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AB30" s="92">
-        <f>SUM(AB31:AB36)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AC30" s="91">
-        <f>SUM(AC31:AC36)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AD30" s="92">
-        <f>SUM(AD31:AD36)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AE30" s="91">
-        <f>SUM(AE31:AE36)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AF30" s="92">
-        <f>SUM(AF31:AF36)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AG30" s="91">
-        <f>SUM(AG31:AG36)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AH30" s="92">
-        <f>SUM(AH31:AH36)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:34" ht="131.25">
       <c r="A31" s="45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B31" s="46" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C31" s="95"/>
       <c r="D31" s="96"/>
       <c r="E31" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F31" s="3">
@@ -3863,11 +3863,11 @@
       <c r="Q31" s="93"/>
       <c r="R31" s="90"/>
       <c r="S31" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T31" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U31" s="93"/>
@@ -3887,15 +3887,15 @@
     </row>
     <row r="32" spans="1:34" ht="93.75">
       <c r="A32" s="31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B32" s="47" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C32" s="95"/>
       <c r="D32" s="90"/>
       <c r="E32" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F32" s="3">
@@ -3921,11 +3921,11 @@
       <c r="Q32" s="93"/>
       <c r="R32" s="90"/>
       <c r="S32" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T32" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U32" s="93"/>
@@ -3945,15 +3945,15 @@
     </row>
     <row r="33" spans="1:34" ht="56.25">
       <c r="A33" s="31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B33" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C33" s="95"/>
       <c r="D33" s="90"/>
       <c r="E33" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F33" s="3">
@@ -3979,11 +3979,11 @@
       <c r="Q33" s="93"/>
       <c r="R33" s="90"/>
       <c r="S33" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T33" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U33" s="93"/>
@@ -4003,15 +4003,15 @@
     </row>
     <row r="34" spans="1:34" ht="94.5" customHeight="1">
       <c r="A34" s="31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B34" s="47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C34" s="95"/>
       <c r="D34" s="90"/>
       <c r="E34" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F34" s="3">
@@ -4037,11 +4037,11 @@
       <c r="Q34" s="93"/>
       <c r="R34" s="90"/>
       <c r="S34" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T34" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U34" s="93"/>
@@ -4061,15 +4061,15 @@
     </row>
     <row r="35" spans="1:34" ht="52.5" customHeight="1">
       <c r="A35" s="31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B35" s="47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C35" s="95"/>
       <c r="D35" s="90"/>
       <c r="E35" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F35" s="3">
@@ -4095,11 +4095,11 @@
       <c r="Q35" s="93"/>
       <c r="R35" s="90"/>
       <c r="S35" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T35" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U35" s="93"/>
@@ -4119,7 +4119,7 @@
     </row>
     <row r="36" spans="1:34" ht="37.5">
       <c r="A36" s="31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B36" s="47" t="s">
         <v>6</v>
@@ -4127,7 +4127,7 @@
       <c r="C36" s="95"/>
       <c r="D36" s="90"/>
       <c r="E36" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F36" s="3">
@@ -4153,11 +4153,11 @@
       <c r="Q36" s="93"/>
       <c r="R36" s="90"/>
       <c r="S36" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T36" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U36" s="93"/>
@@ -4180,7 +4180,7 @@
         <v>7</v>
       </c>
       <c r="B37" s="44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C37" s="91">
         <f>SUM(C38:C39)</f>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="E37" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F37" s="3">
@@ -4207,121 +4207,121 @@
         <v>0</v>
       </c>
       <c r="I37" s="91">
-        <f>SUM(I38:I39)</f>
+        <f t="shared" ref="I37:R37" si="21">SUM(I38:I39)</f>
         <v>0</v>
       </c>
       <c r="J37" s="92">
-        <f>SUM(J38:J39)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K37" s="91">
-        <f>SUM(K38:K39)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L37" s="92">
-        <f>SUM(L38:L39)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M37" s="91">
-        <f>SUM(M38:M39)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N37" s="92">
-        <f>SUM(N38:N39)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="O37" s="91">
-        <f>SUM(O38:O39)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="P37" s="92">
-        <f>SUM(P38:P39)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Q37" s="91">
-        <f>SUM(Q38:Q39)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="R37" s="92">
-        <f>SUM(R38:R39)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="S37" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T37" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U37" s="91">
-        <f>SUM(U38:U39)</f>
+        <f t="shared" ref="U37:AH37" si="22">SUM(U38:U39)</f>
         <v>0</v>
       </c>
       <c r="V37" s="92">
-        <f>SUM(V38:V39)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="W37" s="91">
-        <f>SUM(W38:W39)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="X37" s="92">
-        <f>SUM(X38:X39)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Y37" s="91">
-        <f>SUM(Y38:Y39)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Z37" s="92">
-        <f>SUM(Z38:Z39)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AA37" s="91">
-        <f>SUM(AA38:AA39)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AB37" s="92">
-        <f>SUM(AB38:AB39)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AC37" s="91">
-        <f>SUM(AC38:AC39)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AD37" s="92">
-        <f>SUM(AD38:AD39)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AE37" s="91">
-        <f>SUM(AE38:AE39)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AF37" s="92">
-        <f>SUM(AF38:AF39)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AG37" s="91">
-        <f>SUM(AG38:AG39)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="AH37" s="92">
-        <f>SUM(AH38:AH39)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:34" ht="46.5" customHeight="1">
       <c r="A38" s="31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B38" s="47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C38" s="95"/>
       <c r="D38" s="90"/>
       <c r="E38" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F38" s="3">
@@ -4347,11 +4347,11 @@
       <c r="Q38" s="93"/>
       <c r="R38" s="90"/>
       <c r="S38" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T38" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U38" s="93"/>
@@ -4371,15 +4371,15 @@
     </row>
     <row r="39" spans="1:34" ht="75">
       <c r="A39" s="31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B39" s="47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C39" s="95"/>
       <c r="D39" s="90"/>
       <c r="E39" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F39" s="3">
@@ -4405,11 +4405,11 @@
       <c r="Q39" s="93"/>
       <c r="R39" s="90"/>
       <c r="S39" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T39" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U39" s="93"/>
@@ -4432,7 +4432,7 @@
         <v>8</v>
       </c>
       <c r="B40" s="36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C40" s="91">
         <f>SUM(C41)</f>
@@ -4443,7 +4443,7 @@
         <v>0</v>
       </c>
       <c r="E40" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F40" s="3">
@@ -4459,121 +4459,121 @@
         <v>0</v>
       </c>
       <c r="I40" s="91">
-        <f>SUM(I41)</f>
+        <f t="shared" ref="I40:R40" si="23">SUM(I41)</f>
         <v>0</v>
       </c>
       <c r="J40" s="92">
-        <f>SUM(J41)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="K40" s="91">
-        <f>SUM(K41)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L40" s="92">
-        <f>SUM(L41)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="M40" s="91">
-        <f>SUM(M41)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N40" s="92">
-        <f>SUM(N41)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="O40" s="91">
-        <f>SUM(O41)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="P40" s="92">
-        <f>SUM(P41)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q40" s="91">
-        <f>SUM(Q41)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="R40" s="92">
-        <f>SUM(R41)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="S40" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T40" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U40" s="91">
-        <f>SUM(U41)</f>
+        <f t="shared" ref="U40:AH40" si="24">SUM(U41)</f>
         <v>0</v>
       </c>
       <c r="V40" s="92">
-        <f>SUM(V41)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="W40" s="91">
-        <f>SUM(W41)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="X40" s="92">
-        <f>SUM(X41)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Y40" s="91">
-        <f>SUM(Y41)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Z40" s="92">
-        <f>SUM(Z41)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AA40" s="91">
-        <f>SUM(AA41)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AB40" s="92">
-        <f>SUM(AB41)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AC40" s="91">
-        <f>SUM(AC41)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AD40" s="92">
-        <f>SUM(AD41)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AE40" s="91">
-        <f>SUM(AE41)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AF40" s="92">
-        <f>SUM(AF41)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AG40" s="91">
-        <f>SUM(AG41)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="AH40" s="92">
-        <f>SUM(AH41)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:34" ht="113.25" customHeight="1">
       <c r="A41" s="31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B41" s="39" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C41" s="93"/>
       <c r="D41" s="90"/>
       <c r="E41" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F41" s="3">
@@ -4599,11 +4599,11 @@
       <c r="Q41" s="93"/>
       <c r="R41" s="90"/>
       <c r="S41" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T41" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U41" s="93"/>
@@ -4626,12 +4626,12 @@
         <v>9</v>
       </c>
       <c r="B42" s="44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C42" s="91"/>
       <c r="D42" s="94"/>
       <c r="E42" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F42" s="3">
@@ -4657,11 +4657,11 @@
       <c r="Q42" s="91"/>
       <c r="R42" s="92"/>
       <c r="S42" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T42" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U42" s="91"/>
@@ -4684,7 +4684,7 @@
         <v>10</v>
       </c>
       <c r="B43" s="36" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C43" s="91">
         <f>SUM(C44:C46)</f>
@@ -4695,7 +4695,7 @@
         <v>0</v>
       </c>
       <c r="E43" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F43" s="3">
@@ -4711,107 +4711,107 @@
         <v>0</v>
       </c>
       <c r="I43" s="91">
-        <f>SUM(I44:I46)</f>
+        <f t="shared" ref="I43:R43" si="25">SUM(I44:I46)</f>
         <v>0</v>
       </c>
       <c r="J43" s="92">
-        <f>SUM(J44:J46)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="K43" s="91">
-        <f>SUM(K44:K46)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L43" s="92">
-        <f>SUM(L44:L46)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="M43" s="91">
-        <f>SUM(M44:M46)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="N43" s="92">
-        <f>SUM(N44:N46)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="O43" s="91">
-        <f>SUM(O44:O46)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="P43" s="92">
-        <f>SUM(P44:P46)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Q43" s="91">
-        <f>SUM(Q44:Q46)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="R43" s="92">
-        <f>SUM(R44:R46)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="S43" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T43" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U43" s="91">
-        <f>SUM(U44:U46)</f>
+        <f t="shared" ref="U43:AH43" si="26">SUM(U44:U46)</f>
         <v>0</v>
       </c>
       <c r="V43" s="92">
-        <f>SUM(V44:V46)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="W43" s="91">
-        <f>SUM(W44:W46)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="X43" s="92">
-        <f>SUM(X44:X46)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Y43" s="91">
-        <f>SUM(Y44:Y46)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Z43" s="92">
-        <f>SUM(Z44:Z46)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AA43" s="91">
-        <f>SUM(AA44:AA46)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AB43" s="92">
-        <f>SUM(AB44:AB46)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AC43" s="91">
-        <f>SUM(AC44:AC46)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AD43" s="92">
-        <f>SUM(AD44:AD46)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AE43" s="91">
-        <f>SUM(AE44:AE46)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AF43" s="92">
-        <f>SUM(AF44:AF46)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AG43" s="91">
-        <f>SUM(AG44:AG46)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="AH43" s="92">
-        <f>SUM(AH44:AH46)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
@@ -4820,12 +4820,12 @@
         <v>43110</v>
       </c>
       <c r="B44" s="49" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C44" s="93"/>
       <c r="D44" s="90"/>
       <c r="E44" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F44" s="3">
@@ -4851,11 +4851,11 @@
       <c r="Q44" s="93"/>
       <c r="R44" s="90"/>
       <c r="S44" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T44" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U44" s="93"/>
@@ -4878,12 +4878,12 @@
         <v>43141</v>
       </c>
       <c r="B45" s="49" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C45" s="93"/>
       <c r="D45" s="90"/>
       <c r="E45" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F45" s="3">
@@ -4909,11 +4909,11 @@
       <c r="Q45" s="93"/>
       <c r="R45" s="90"/>
       <c r="S45" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T45" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U45" s="93"/>
@@ -4936,12 +4936,12 @@
         <v>43169</v>
       </c>
       <c r="B46" s="49" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C46" s="93"/>
       <c r="D46" s="90"/>
       <c r="E46" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F46" s="3">
@@ -4967,11 +4967,11 @@
       <c r="Q46" s="93"/>
       <c r="R46" s="90"/>
       <c r="S46" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T46" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U46" s="93"/>
@@ -4994,7 +4994,7 @@
         <v>11</v>
       </c>
       <c r="B47" s="44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C47" s="91">
         <f>SUM(C48:C49)</f>
@@ -5005,7 +5005,7 @@
         <v>0</v>
       </c>
       <c r="E47" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F47" s="3">
@@ -5021,107 +5021,107 @@
         <v>0</v>
       </c>
       <c r="I47" s="91">
-        <f>SUM(I48:I49)</f>
+        <f t="shared" ref="I47:R47" si="27">SUM(I48:I49)</f>
         <v>0</v>
       </c>
       <c r="J47" s="92">
-        <f>SUM(J48:J49)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="K47" s="91">
-        <f>SUM(K48:K49)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="L47" s="92">
-        <f>SUM(L48:L49)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="M47" s="91">
-        <f>SUM(M48:M49)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="N47" s="92">
-        <f>SUM(N48:N49)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="O47" s="91">
-        <f>SUM(O48:O49)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="P47" s="92">
-        <f>SUM(P48:P49)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="Q47" s="91">
-        <f>SUM(Q48:Q49)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="R47" s="92">
-        <f>SUM(R48:R49)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="S47" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T47" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U47" s="91">
-        <f>SUM(U48:U49)</f>
+        <f t="shared" ref="U47:AH47" si="28">SUM(U48:U49)</f>
         <v>0</v>
       </c>
       <c r="V47" s="92">
-        <f>SUM(V48:V49)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="W47" s="91">
-        <f>SUM(W48:W49)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="X47" s="92">
-        <f>SUM(X48:X49)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Y47" s="91">
-        <f>SUM(Y48:Y49)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Z47" s="92">
-        <f>SUM(Z48:Z49)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AA47" s="91">
-        <f>SUM(AA48:AA49)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AB47" s="92">
-        <f>SUM(AB48:AB49)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AC47" s="91">
-        <f>SUM(AC48:AC49)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AD47" s="92">
-        <f>SUM(AD48:AD49)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AE47" s="91">
-        <f>SUM(AE48:AE49)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AF47" s="92">
-        <f>SUM(AF48:AF49)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AG47" s="91">
-        <f>SUM(AG48:AG49)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AH47" s="92">
-        <f>SUM(AH48:AH49)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
@@ -5130,12 +5130,12 @@
         <v>43111</v>
       </c>
       <c r="B48" s="51" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C48" s="97"/>
       <c r="D48" s="98"/>
       <c r="E48" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F48" s="3">
@@ -5161,11 +5161,11 @@
       <c r="Q48" s="97"/>
       <c r="R48" s="104"/>
       <c r="S48" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T48" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U48" s="97"/>
@@ -5188,12 +5188,12 @@
         <v>43142</v>
       </c>
       <c r="B49" s="51" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C49" s="93"/>
       <c r="D49" s="90"/>
       <c r="E49" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F49" s="3">
@@ -5219,11 +5219,11 @@
       <c r="Q49" s="93"/>
       <c r="R49" s="90"/>
       <c r="S49" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T49" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U49" s="93"/>
@@ -5246,7 +5246,7 @@
         <v>12</v>
       </c>
       <c r="B50" s="44" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C50" s="91">
         <f>SUM(C51)</f>
@@ -5257,7 +5257,7 @@
         <v>0</v>
       </c>
       <c r="E50" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F50" s="3">
@@ -5273,107 +5273,107 @@
         <v>0</v>
       </c>
       <c r="I50" s="91">
-        <f>SUM(I51)</f>
+        <f t="shared" ref="I50:R50" si="29">SUM(I51)</f>
         <v>0</v>
       </c>
       <c r="J50" s="92">
-        <f>SUM(J51)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="K50" s="91">
-        <f>SUM(K51)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="L50" s="92">
-        <f>SUM(L51)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="M50" s="91">
-        <f>SUM(M51)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N50" s="92">
-        <f>SUM(N51)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="O50" s="91">
-        <f>SUM(O51)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="P50" s="92">
-        <f>SUM(P51)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="Q50" s="91">
-        <f>SUM(Q51)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="R50" s="92">
-        <f>SUM(R51)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="S50" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T50" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U50" s="91">
-        <f>SUM(U51)</f>
+        <f t="shared" ref="U50:AH50" si="30">SUM(U51)</f>
         <v>0</v>
       </c>
       <c r="V50" s="92">
-        <f>SUM(V51)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="W50" s="91">
-        <f>SUM(W51)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="X50" s="92">
-        <f>SUM(X51)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="Y50" s="91">
-        <f>SUM(Y51)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="Z50" s="92">
-        <f>SUM(Z51)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AA50" s="91">
-        <f>SUM(AA51)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AB50" s="92">
-        <f>SUM(AB51)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AC50" s="91">
-        <f>SUM(AC51)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AD50" s="92">
-        <f>SUM(AD51)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AE50" s="91">
-        <f>SUM(AE51)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AF50" s="92">
-        <f>SUM(AF51)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AG50" s="91">
-        <f>SUM(AG51)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="AH50" s="92">
-        <f>SUM(AH51)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
@@ -5382,12 +5382,12 @@
         <v>43112</v>
       </c>
       <c r="B51" s="51" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C51" s="93"/>
       <c r="D51" s="90"/>
       <c r="E51" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F51" s="3">
@@ -5413,11 +5413,11 @@
       <c r="Q51" s="93"/>
       <c r="R51" s="90"/>
       <c r="S51" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T51" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U51" s="93"/>
@@ -5440,12 +5440,12 @@
         <v>13</v>
       </c>
       <c r="B52" s="53" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C52" s="91"/>
       <c r="D52" s="92"/>
       <c r="E52" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F52" s="3">
@@ -5471,11 +5471,11 @@
       <c r="Q52" s="91"/>
       <c r="R52" s="92"/>
       <c r="S52" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T52" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U52" s="91"/>
@@ -5498,12 +5498,12 @@
         <v>14</v>
       </c>
       <c r="B53" s="55" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C53" s="91"/>
       <c r="D53" s="92"/>
       <c r="E53" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F53" s="3">
@@ -5529,11 +5529,11 @@
       <c r="Q53" s="91"/>
       <c r="R53" s="92"/>
       <c r="S53" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T53" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U53" s="91"/>
@@ -5553,15 +5553,15 @@
     </row>
     <row r="54" spans="1:34" ht="132">
       <c r="A54" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="B54" s="57" t="s">
         <v>99</v>
-      </c>
-      <c r="B54" s="57" t="s">
-        <v>100</v>
       </c>
       <c r="C54" s="99"/>
       <c r="D54" s="92"/>
       <c r="E54" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F54" s="3">
@@ -5587,11 +5587,11 @@
       <c r="Q54" s="91"/>
       <c r="R54" s="92"/>
       <c r="S54" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T54" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U54" s="91"/>
@@ -5614,12 +5614,12 @@
         <v>15</v>
       </c>
       <c r="B55" s="44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C55" s="99"/>
       <c r="D55" s="92"/>
       <c r="E55" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F55" s="3">
@@ -5645,11 +5645,11 @@
       <c r="Q55" s="91"/>
       <c r="R55" s="92"/>
       <c r="S55" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T55" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U55" s="91"/>
@@ -5672,12 +5672,12 @@
         <v>16</v>
       </c>
       <c r="B56" s="44" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C56" s="99"/>
       <c r="D56" s="92"/>
       <c r="E56" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F56" s="3">
@@ -5703,11 +5703,11 @@
       <c r="Q56" s="91"/>
       <c r="R56" s="92"/>
       <c r="S56" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T56" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U56" s="91"/>
@@ -5730,18 +5730,18 @@
         <v>17</v>
       </c>
       <c r="B57" s="44" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C57" s="99">
         <f>SUM(C58:C63)</f>
         <v>0</v>
       </c>
-      <c r="D57" s="139">
+      <c r="D57" s="105">
         <f>SUM(D58:D63)</f>
         <v>0</v>
       </c>
       <c r="E57" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F57" s="3">
@@ -5757,107 +5757,107 @@
         <v>0</v>
       </c>
       <c r="I57" s="99">
-        <f>SUM(I58:I63)</f>
-        <v>0</v>
-      </c>
-      <c r="J57" s="139">
-        <f>SUM(J58:J63)</f>
+        <f t="shared" ref="I57:R57" si="31">SUM(I58:I63)</f>
+        <v>0</v>
+      </c>
+      <c r="J57" s="105">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="K57" s="99">
-        <f>SUM(K58:K63)</f>
-        <v>0</v>
-      </c>
-      <c r="L57" s="139">
-        <f>SUM(L58:L63)</f>
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="L57" s="105">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="M57" s="99">
-        <f>SUM(M58:M63)</f>
-        <v>0</v>
-      </c>
-      <c r="N57" s="139">
-        <f>SUM(N58:N63)</f>
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="N57" s="105">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="O57" s="99">
-        <f>SUM(O58:O63)</f>
-        <v>0</v>
-      </c>
-      <c r="P57" s="139">
-        <f>SUM(P58:P63)</f>
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="P57" s="105">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="Q57" s="99">
-        <f>SUM(Q58:Q63)</f>
-        <v>0</v>
-      </c>
-      <c r="R57" s="139">
-        <f>SUM(R58:R63)</f>
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="R57" s="105">
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="S57" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T57" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U57" s="99">
-        <f>SUM(U58:U63)</f>
-        <v>0</v>
-      </c>
-      <c r="V57" s="139">
-        <f>SUM(V58:V63)</f>
+        <f t="shared" ref="U57:AH57" si="32">SUM(U58:U63)</f>
+        <v>0</v>
+      </c>
+      <c r="V57" s="105">
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="W57" s="99">
-        <f>SUM(W58:W63)</f>
-        <v>0</v>
-      </c>
-      <c r="X57" s="139">
-        <f>SUM(X58:X63)</f>
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="X57" s="105">
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="Y57" s="99">
-        <f>SUM(Y58:Y63)</f>
-        <v>0</v>
-      </c>
-      <c r="Z57" s="139">
-        <f>SUM(Z58:Z63)</f>
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Z57" s="105">
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AA57" s="99">
-        <f>SUM(AA58:AA63)</f>
-        <v>0</v>
-      </c>
-      <c r="AB57" s="139">
-        <f>SUM(AB58:AB63)</f>
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AB57" s="105">
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AC57" s="99">
-        <f>SUM(AC58:AC63)</f>
-        <v>0</v>
-      </c>
-      <c r="AD57" s="139">
-        <f>SUM(AD58:AD63)</f>
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AD57" s="105">
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AE57" s="99">
-        <f>SUM(AE58:AE63)</f>
-        <v>0</v>
-      </c>
-      <c r="AF57" s="139">
-        <f>SUM(AF58:AF63)</f>
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AF57" s="105">
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AG57" s="99">
-        <f>SUM(AG58:AG63)</f>
-        <v>0</v>
-      </c>
-      <c r="AH57" s="139">
-        <f>SUM(AH58:AH63)</f>
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AH57" s="105">
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
@@ -5866,12 +5866,12 @@
         <v>43482</v>
       </c>
       <c r="B58" s="47" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C58" s="95"/>
       <c r="D58" s="90"/>
       <c r="E58" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F58" s="3">
@@ -5897,11 +5897,11 @@
       <c r="Q58" s="93"/>
       <c r="R58" s="90"/>
       <c r="S58" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T58" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U58" s="93"/>
@@ -5924,12 +5924,12 @@
         <v>43513</v>
       </c>
       <c r="B59" s="47" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C59" s="93"/>
       <c r="D59" s="90"/>
       <c r="E59" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F59" s="3">
@@ -5955,11 +5955,11 @@
       <c r="Q59" s="93"/>
       <c r="R59" s="90"/>
       <c r="S59" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T59" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U59" s="93"/>
@@ -5982,12 +5982,12 @@
         <v>43541</v>
       </c>
       <c r="B60" s="47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C60" s="93"/>
       <c r="D60" s="90"/>
       <c r="E60" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F60" s="3">
@@ -6013,11 +6013,11 @@
       <c r="Q60" s="93"/>
       <c r="R60" s="90"/>
       <c r="S60" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T60" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U60" s="93"/>
@@ -6040,12 +6040,12 @@
         <v>43572</v>
       </c>
       <c r="B61" s="47" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C61" s="93"/>
       <c r="D61" s="90"/>
       <c r="E61" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F61" s="3">
@@ -6071,11 +6071,11 @@
       <c r="Q61" s="93"/>
       <c r="R61" s="90"/>
       <c r="S61" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T61" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U61" s="93"/>
@@ -6098,12 +6098,12 @@
         <v>43602</v>
       </c>
       <c r="B62" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C62" s="93"/>
       <c r="D62" s="90"/>
       <c r="E62" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F62" s="3">
@@ -6129,11 +6129,11 @@
       <c r="Q62" s="93"/>
       <c r="R62" s="90"/>
       <c r="S62" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T62" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U62" s="93"/>
@@ -6156,12 +6156,12 @@
         <v>43633</v>
       </c>
       <c r="B63" s="47" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C63" s="93"/>
       <c r="D63" s="90"/>
       <c r="E63" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F63" s="3">
@@ -6187,11 +6187,11 @@
       <c r="Q63" s="93"/>
       <c r="R63" s="90"/>
       <c r="S63" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T63" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U63" s="93"/>
@@ -6219,7 +6219,7 @@
       <c r="C64" s="100"/>
       <c r="D64" s="101"/>
       <c r="E64" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F64" s="3">
@@ -6245,11 +6245,11 @@
       <c r="Q64" s="100"/>
       <c r="R64" s="101"/>
       <c r="S64" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T64" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U64" s="100"/>
@@ -6270,7 +6270,7 @@
     <row r="65" spans="1:34" ht="30.75" customHeight="1">
       <c r="A65" s="60"/>
       <c r="B65" s="60" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C65" s="2">
         <f>C14+C27+C57+C64</f>
@@ -6281,7 +6281,7 @@
         <v>0</v>
       </c>
       <c r="E65" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F65" s="3">
@@ -6297,107 +6297,107 @@
         <v>0</v>
       </c>
       <c r="I65" s="2">
-        <f t="shared" ref="I65:R65" si="9">I14+I27+I57+I64</f>
+        <f t="shared" ref="I65:R65" si="33">I14+I27+I57+I64</f>
         <v>0</v>
       </c>
       <c r="J65" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="K65" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="L65" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="M65" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="N65" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="O65" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="P65" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="Q65" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="R65" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="S65" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T65" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U65" s="2">
-        <f t="shared" ref="U65:AH65" si="10">U14+U27+U57+U64</f>
+        <f t="shared" ref="U65:AH65" si="34">U14+U27+U57+U64</f>
         <v>0</v>
       </c>
       <c r="V65" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="W65" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="X65" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Y65" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Z65" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AA65" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AB65" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AC65" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AD65" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AE65" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AF65" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AG65" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AH65" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
     </row>
@@ -6406,12 +6406,12 @@
         <v>19</v>
       </c>
       <c r="B66" s="61" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C66" s="102"/>
       <c r="D66" s="103"/>
       <c r="E66" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F66" s="3">
@@ -6437,11 +6437,11 @@
       <c r="Q66" s="102"/>
       <c r="R66" s="103"/>
       <c r="S66" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T66" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U66" s="102"/>
@@ -6475,11 +6475,11 @@
         <v>0</v>
       </c>
       <c r="E67" s="37">
-        <f t="shared" ref="E67:AH67" si="11">SUM(E68:E71)</f>
+        <f t="shared" ref="E67:AH67" si="35">SUM(E68:E71)</f>
         <v>0</v>
       </c>
       <c r="F67" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="G67" s="40">
@@ -6491,113 +6491,113 @@
         <v>0</v>
       </c>
       <c r="I67" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="J67" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="K67" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="L67" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="M67" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N67" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="O67" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="P67" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="Q67" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="R67" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="S67" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T67" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U67" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="V67" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="W67" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="X67" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="Y67" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="Z67" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AA67" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AB67" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AC67" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AD67" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AE67" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AF67" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AG67" s="37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AH67" s="38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:34" ht="18.75">
       <c r="A68" s="64" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B68" s="65" t="s">
         <v>3</v>
@@ -6605,7 +6605,7 @@
       <c r="C68" s="34"/>
       <c r="D68" s="33"/>
       <c r="E68" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F68" s="3">
@@ -6631,11 +6631,11 @@
       <c r="Q68" s="93"/>
       <c r="R68" s="90"/>
       <c r="S68" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T68" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U68" s="93"/>
@@ -6655,7 +6655,7 @@
     </row>
     <row r="69" spans="1:34" ht="20.25" customHeight="1">
       <c r="A69" s="64" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B69" s="65" t="s">
         <v>2</v>
@@ -6663,7 +6663,7 @@
       <c r="C69" s="34"/>
       <c r="D69" s="33"/>
       <c r="E69" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F69" s="3">
@@ -6689,11 +6689,11 @@
       <c r="Q69" s="93"/>
       <c r="R69" s="90"/>
       <c r="S69" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T69" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U69" s="93"/>
@@ -6713,7 +6713,7 @@
     </row>
     <row r="70" spans="1:34" ht="17.25" customHeight="1">
       <c r="A70" s="64" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B70" s="65" t="s">
         <v>1</v>
@@ -6721,7 +6721,7 @@
       <c r="C70" s="34"/>
       <c r="D70" s="33"/>
       <c r="E70" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F70" s="3">
@@ -6747,11 +6747,11 @@
       <c r="Q70" s="93"/>
       <c r="R70" s="90"/>
       <c r="S70" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T70" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U70" s="93"/>
@@ -6771,7 +6771,7 @@
     </row>
     <row r="71" spans="1:34" ht="17.25" customHeight="1">
       <c r="A71" s="64" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B71" s="65" t="s">
         <v>0</v>
@@ -6779,7 +6779,7 @@
       <c r="C71" s="34"/>
       <c r="D71" s="33"/>
       <c r="E71" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F71" s="3">
@@ -6805,11 +6805,11 @@
       <c r="Q71" s="93"/>
       <c r="R71" s="90"/>
       <c r="S71" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T71" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U71" s="93"/>
@@ -6828,113 +6828,84 @@
       <c r="AH71" s="90"/>
     </row>
     <row r="72" spans="1:34" ht="63" customHeight="1">
-      <c r="A72" s="122" t="s">
-        <v>103</v>
-      </c>
-      <c r="B72" s="123"/>
-      <c r="C72" s="123"/>
-      <c r="D72" s="123"/>
-      <c r="E72" s="123"/>
-      <c r="F72" s="123"/>
-      <c r="G72" s="123"/>
-      <c r="H72" s="123"/>
-      <c r="I72" s="123"/>
-      <c r="J72" s="123"/>
-      <c r="K72" s="123"/>
-      <c r="L72" s="123"/>
-      <c r="M72" s="123"/>
-      <c r="N72" s="123"/>
-      <c r="O72" s="123"/>
-      <c r="P72" s="123"/>
-      <c r="Q72" s="123"/>
-      <c r="R72" s="123"/>
-      <c r="S72" s="123"/>
-      <c r="T72" s="123"/>
-      <c r="U72" s="123"/>
-      <c r="V72" s="123"/>
-      <c r="W72" s="123"/>
-      <c r="X72" s="123"/>
-      <c r="Y72" s="123"/>
-      <c r="Z72" s="123"/>
-      <c r="AA72" s="123"/>
-      <c r="AB72" s="123"/>
-      <c r="AC72" s="123"/>
-      <c r="AD72" s="123"/>
-      <c r="AE72" s="123"/>
-      <c r="AF72" s="123"/>
-      <c r="AG72" s="123"/>
-      <c r="AH72" s="123"/>
+      <c r="A72" s="116" t="s">
+        <v>102</v>
+      </c>
+      <c r="B72" s="117"/>
+      <c r="C72" s="117"/>
+      <c r="D72" s="117"/>
+      <c r="E72" s="117"/>
+      <c r="F72" s="117"/>
+      <c r="G72" s="117"/>
+      <c r="H72" s="117"/>
+      <c r="I72" s="117"/>
+      <c r="J72" s="117"/>
+      <c r="K72" s="117"/>
+      <c r="L72" s="117"/>
+      <c r="M72" s="117"/>
+      <c r="N72" s="117"/>
+      <c r="O72" s="117"/>
+      <c r="P72" s="117"/>
+      <c r="Q72" s="117"/>
+      <c r="R72" s="117"/>
+      <c r="S72" s="117"/>
+      <c r="T72" s="117"/>
+      <c r="U72" s="117"/>
+      <c r="V72" s="117"/>
+      <c r="W72" s="117"/>
+      <c r="X72" s="117"/>
+      <c r="Y72" s="117"/>
+      <c r="Z72" s="117"/>
+      <c r="AA72" s="117"/>
+      <c r="AB72" s="117"/>
+      <c r="AC72" s="117"/>
+      <c r="AD72" s="117"/>
+      <c r="AE72" s="117"/>
+      <c r="AF72" s="117"/>
+      <c r="AG72" s="117"/>
+      <c r="AH72" s="117"/>
     </row>
     <row r="73" spans="1:34" ht="50.45" customHeight="1">
-      <c r="A73" s="122" t="s">
-        <v>81</v>
-      </c>
-      <c r="B73" s="123"/>
-      <c r="C73" s="123"/>
-      <c r="D73" s="123"/>
-      <c r="E73" s="123"/>
-      <c r="F73" s="123"/>
-      <c r="G73" s="123"/>
-      <c r="H73" s="123"/>
-      <c r="I73" s="123"/>
-      <c r="J73" s="123"/>
-      <c r="K73" s="123"/>
-      <c r="L73" s="123"/>
-      <c r="M73" s="123"/>
-      <c r="N73" s="123"/>
-      <c r="O73" s="123"/>
-      <c r="P73" s="123"/>
-      <c r="Q73" s="123"/>
-      <c r="R73" s="123"/>
-      <c r="S73" s="123"/>
-      <c r="T73" s="123"/>
-      <c r="U73" s="123"/>
-      <c r="V73" s="123"/>
-      <c r="W73" s="123"/>
-      <c r="X73" s="123"/>
-      <c r="Y73" s="123"/>
-      <c r="Z73" s="123"/>
-      <c r="AA73" s="123"/>
-      <c r="AB73" s="123"/>
-      <c r="AC73" s="123"/>
-      <c r="AD73" s="123"/>
-      <c r="AE73" s="123"/>
-      <c r="AF73" s="123"/>
-      <c r="AG73" s="123"/>
-      <c r="AH73" s="123"/>
+      <c r="A73" s="116" t="s">
+        <v>80</v>
+      </c>
+      <c r="B73" s="117"/>
+      <c r="C73" s="117"/>
+      <c r="D73" s="117"/>
+      <c r="E73" s="117"/>
+      <c r="F73" s="117"/>
+      <c r="G73" s="117"/>
+      <c r="H73" s="117"/>
+      <c r="I73" s="117"/>
+      <c r="J73" s="117"/>
+      <c r="K73" s="117"/>
+      <c r="L73" s="117"/>
+      <c r="M73" s="117"/>
+      <c r="N73" s="117"/>
+      <c r="O73" s="117"/>
+      <c r="P73" s="117"/>
+      <c r="Q73" s="117"/>
+      <c r="R73" s="117"/>
+      <c r="S73" s="117"/>
+      <c r="T73" s="117"/>
+      <c r="U73" s="117"/>
+      <c r="V73" s="117"/>
+      <c r="W73" s="117"/>
+      <c r="X73" s="117"/>
+      <c r="Y73" s="117"/>
+      <c r="Z73" s="117"/>
+      <c r="AA73" s="117"/>
+      <c r="AB73" s="117"/>
+      <c r="AC73" s="117"/>
+      <c r="AD73" s="117"/>
+      <c r="AE73" s="117"/>
+      <c r="AF73" s="117"/>
+      <c r="AG73" s="117"/>
+      <c r="AH73" s="117"/>
     </row>
   </sheetData>
   <sheetProtection password="CB52" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="45">
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="I8:U8"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="S10:AD10"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="E10:F11"/>
-    <mergeCell ref="G10:R10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="A73:AH73"/>
-    <mergeCell ref="A72:AH72"/>
-    <mergeCell ref="AE10:AF11"/>
-    <mergeCell ref="AG10:AH11"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="Z4:AC4"/>
-    <mergeCell ref="I5:U5"/>
-    <mergeCell ref="I2:U2"/>
-    <mergeCell ref="Z2:AC2"/>
-    <mergeCell ref="I3:U3"/>
-    <mergeCell ref="Z3:AD3"/>
-    <mergeCell ref="Z5:AC5"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:H3"/>
@@ -6951,6 +6922,35 @@
     <mergeCell ref="I1:U1"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="B10:B12"/>
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="Z4:AC4"/>
+    <mergeCell ref="I5:U5"/>
+    <mergeCell ref="I2:U2"/>
+    <mergeCell ref="Z2:AC2"/>
+    <mergeCell ref="I3:U3"/>
+    <mergeCell ref="Z3:AD3"/>
+    <mergeCell ref="Z5:AC5"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="E10:F11"/>
+    <mergeCell ref="G10:R10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="A73:AH73"/>
+    <mergeCell ref="A72:AH72"/>
+    <mergeCell ref="AE10:AF11"/>
+    <mergeCell ref="AG10:AH11"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="I8:U8"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="Y11:Z11"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="S10:AD10"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B54" r:id="rId1" location="dst100375" display="http://www.consultant.ru/document/cons_doc_LAW_300850/9f5fbd89acd2e5dede9805ccc99176d3915a449d/ - dst100375"/>
